--- a/cmc.xlsx
+++ b/cmc.xlsx
@@ -870,7 +870,7 @@
   <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,46 +944,46 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42701039</v>
+        <v>2319559372</v>
       </c>
       <c r="B2">
-        <v>9.993E-5</v>
+        <v>3.8000000000000001E-7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>28.68</v>
       </c>
       <c r="E2">
-        <v>15.84</v>
+        <v>101.35</v>
       </c>
       <c r="F2">
-        <v>77.39</v>
+        <v>568.75</v>
       </c>
       <c r="H2" s="1">
-        <v>68891722</v>
+        <v>14258656</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1">
-        <v>58540763</v>
+        <v>2319559372</v>
       </c>
       <c r="K2">
-        <v>1.6133500000000001</v>
+        <v>6.1471399999999997E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>2497170</v>
+        <v>473829</v>
       </c>
       <c r="M2">
-        <v>121</v>
+        <v>599</v>
       </c>
       <c r="N2" s="2">
         <v>43107</v>
       </c>
       <c r="O2" s="3">
-        <v>0.7989814814814814</v>
+        <v>0.87421296296296302</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -991,46 +991,46 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7906397</v>
+        <v>13000000</v>
       </c>
       <c r="B3">
-        <v>5.2028999999999997E-4</v>
+        <v>2.8079999999999999E-4</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>-2.2000000000000002</v>
+        <v>-0.54</v>
       </c>
       <c r="E3">
-        <v>-2.12</v>
+        <v>-11.85</v>
       </c>
       <c r="F3">
-        <v>55.12</v>
+        <v>449.57</v>
       </c>
       <c r="H3" s="1">
-        <v>66410568</v>
+        <v>59178080</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1">
-        <v>16906397</v>
+        <v>20000000</v>
       </c>
       <c r="K3">
-        <v>8.3995999999999995</v>
+        <v>4.5521599999999998</v>
       </c>
       <c r="L3" s="1">
-        <v>7075440</v>
+        <v>42617000</v>
       </c>
       <c r="M3">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2">
         <v>43107</v>
       </c>
       <c r="O3" s="3">
-        <v>0.84230324074074081</v>
+        <v>0.87072916666666667</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1038,46 +1038,46 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>10500000</v>
+        <v>643012000</v>
       </c>
       <c r="B4">
-        <v>4.6324000000000002E-4</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>3.24</v>
       </c>
       <c r="E4">
-        <v>21.79</v>
+        <v>28.95</v>
       </c>
       <c r="F4">
-        <v>74.040000000000006</v>
+        <v>388.58</v>
       </c>
       <c r="H4" s="1">
-        <v>78524670</v>
+        <v>52120495</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
-        <v>10500000</v>
+        <v>825578000</v>
       </c>
       <c r="K4">
-        <v>7.4785399999999997</v>
+        <v>8.1056799999999998E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>1011310</v>
+        <v>3079760</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="N4" s="2">
         <v>43107</v>
       </c>
       <c r="O4" s="3">
-        <v>0.23299768518518518</v>
+        <v>0.88527777777777772</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1132,46 +1132,46 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>40000000</v>
+        <v>72057791</v>
       </c>
       <c r="B6">
-        <v>1.2947999999999999E-4</v>
+        <v>5.1629999999999999E-5</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>0.43</v>
+        <v>2.59</v>
       </c>
       <c r="E6">
-        <v>-0.24</v>
+        <v>25.47</v>
       </c>
       <c r="F6">
-        <v>83.3</v>
+        <v>278.83</v>
       </c>
       <c r="H6" s="1">
-        <v>83615600</v>
+        <v>60307255</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
-        <v>62500000</v>
+        <v>189151329</v>
       </c>
       <c r="K6">
-        <v>2.0903900000000002</v>
+        <v>0.83692900000000003</v>
       </c>
       <c r="L6" s="1">
-        <v>2181470</v>
+        <v>1542960</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O6" s="3">
-        <v>0.98006944444444455</v>
+        <v>0.87708333333333333</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1179,93 +1179,93 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>16737400</v>
+        <v>910900</v>
       </c>
       <c r="B7">
-        <v>2.8938999999999999E-4</v>
+        <v>2.6053999999999999E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>-4.41</v>
+        <v>0.03</v>
       </c>
       <c r="E7">
-        <v>8.3800000000000008</v>
+        <v>-2.39</v>
       </c>
       <c r="F7">
-        <v>69.98</v>
+        <v>251.78</v>
       </c>
       <c r="H7" s="1">
-        <v>78195961</v>
+        <v>38473498</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1">
-        <v>16737400</v>
+        <v>1060601</v>
       </c>
       <c r="K7">
-        <v>4.6719299999999997</v>
+        <v>42.236800000000002</v>
       </c>
       <c r="L7" s="1">
-        <v>1646300</v>
+        <v>809788</v>
       </c>
       <c r="M7">
-        <v>393</v>
+        <v>239</v>
       </c>
       <c r="N7" s="2">
         <v>43107</v>
       </c>
       <c r="O7" s="3">
-        <v>0.40854166666666664</v>
+        <v>0.80996527777777771</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>72057791</v>
+        <v>175109299</v>
       </c>
       <c r="B8">
-        <v>5.1629999999999999E-5</v>
+        <v>2.881E-5</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>2.59</v>
+        <v>-2.71</v>
       </c>
       <c r="E8">
-        <v>25.47</v>
+        <v>58.93</v>
       </c>
       <c r="F8">
-        <v>278.83</v>
+        <v>248.63</v>
       </c>
       <c r="H8" s="1">
-        <v>60307255</v>
+        <v>81446662</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1">
-        <v>189151329</v>
+        <v>245209299</v>
       </c>
       <c r="K8">
-        <v>0.83692900000000003</v>
+        <v>0.465119</v>
       </c>
       <c r="L8" s="1">
-        <v>1542960</v>
+        <v>2001020</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>43107</v>
       </c>
       <c r="O8" s="3">
-        <v>0.87708333333333333</v>
+        <v>0.83089120370370362</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1273,46 +1273,49 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>13000000</v>
+        <v>3268301</v>
       </c>
       <c r="B9">
-        <v>2.8079999999999999E-4</v>
+        <v>4.4780000000000002E-5</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D9">
-        <v>-0.54</v>
+        <v>5.7</v>
       </c>
       <c r="E9">
-        <v>-11.85</v>
+        <v>47.23</v>
       </c>
       <c r="F9">
-        <v>449.57</v>
+        <v>240.76</v>
+      </c>
+      <c r="G9">
+        <v>3315372</v>
       </c>
       <c r="H9" s="1">
-        <v>59178080</v>
+        <v>2360439</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J9" s="1">
-        <v>20000000</v>
+        <v>3315297</v>
       </c>
       <c r="K9">
-        <v>4.5521599999999998</v>
+        <v>0.72222200000000003</v>
       </c>
       <c r="L9" s="1">
-        <v>42617000</v>
+        <v>96138.7</v>
       </c>
       <c r="M9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N9" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O9" s="3">
-        <v>0.87072916666666667</v>
+        <v>0.9412152777777778</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1320,93 +1323,96 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>25009250</v>
+        <v>18582933</v>
       </c>
       <c r="B10">
-        <v>1.4049000000000001E-4</v>
+        <v>1.5317999999999999E-4</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D10">
-        <v>3.19</v>
+        <v>11.79</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>24.44</v>
       </c>
       <c r="F10">
-        <v>79.66</v>
+        <v>232.72</v>
       </c>
       <c r="H10" s="1">
-        <v>56960066</v>
+        <v>46145510</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1">
-        <v>100000000</v>
+        <v>33787150</v>
       </c>
       <c r="K10">
-        <v>2.2775599999999998</v>
+        <v>2.4832200000000002</v>
       </c>
       <c r="L10" s="1">
-        <v>11128100</v>
+        <v>1670580</v>
       </c>
       <c r="M10">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="N10" s="2">
         <v>43106</v>
       </c>
       <c r="O10" s="3">
-        <v>0.6648263888888889</v>
+        <v>0.91267361111111101</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>643012000</v>
+        <v>17813302</v>
       </c>
       <c r="B11">
-        <v>5.0000000000000004E-6</v>
+        <v>2.976E-5</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>3.24</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E11">
-        <v>28.95</v>
+        <v>65.88</v>
       </c>
       <c r="F11">
-        <v>388.58</v>
+        <v>228.58</v>
+      </c>
+      <c r="G11">
+        <v>19276800</v>
       </c>
       <c r="H11" s="1">
-        <v>52120495</v>
+        <v>8551169</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1">
-        <v>825578000</v>
+        <v>17813302</v>
       </c>
       <c r="K11">
-        <v>8.1056799999999998E-2</v>
+        <v>0.48004400000000003</v>
       </c>
       <c r="L11" s="1">
-        <v>3079760</v>
+        <v>289280</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2">
         <v>43107</v>
       </c>
       <c r="O11" s="3">
-        <v>0.88527777777777772</v>
+        <v>0.89222222222222225</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1414,93 +1420,93 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4736664</v>
+        <v>1402641</v>
       </c>
       <c r="B12">
-        <v>6.4161999999999997E-4</v>
+        <v>2.9952000000000001E-4</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>4.1100000000000003</v>
+        <v>14.02</v>
       </c>
       <c r="E12">
-        <v>54.59</v>
+        <v>35.9</v>
       </c>
       <c r="F12">
-        <v>42.17</v>
+        <v>206.46</v>
       </c>
       <c r="H12" s="1">
-        <v>49267937</v>
+        <v>6777269</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J12" s="1">
-        <v>19304529</v>
+        <v>16718085</v>
       </c>
       <c r="K12">
-        <v>10.401400000000001</v>
+        <v>4.8317899999999998</v>
       </c>
       <c r="L12" s="1">
-        <v>1827470</v>
+        <v>20517.900000000001</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O12" s="3">
-        <v>0.88510416666666669</v>
+        <v>0.9184606481481481</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>30324292</v>
+        <v>647370</v>
       </c>
       <c r="B13">
-        <v>1.0009E-4</v>
+        <v>1.5760500000000001E-3</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>3.56</v>
+        <v>-3.08</v>
       </c>
       <c r="E13">
-        <v>-4.5199999999999996</v>
+        <v>20.64</v>
       </c>
       <c r="F13">
-        <v>75.63</v>
+        <v>201.56</v>
       </c>
       <c r="H13" s="1">
-        <v>49042265</v>
+        <v>16504968</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1">
-        <v>30324292</v>
+        <v>997370</v>
       </c>
       <c r="K13">
-        <v>1.6172599999999999</v>
+        <v>25.4954</v>
       </c>
       <c r="L13" s="1">
-        <v>1869900</v>
+        <v>509971</v>
       </c>
       <c r="M13">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="N13" s="2">
         <v>43107</v>
       </c>
       <c r="O13" s="3">
-        <v>0.88525462962962964</v>
+        <v>0.33445601851851853</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1508,46 +1514,46 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>38538648</v>
+        <v>253773946</v>
       </c>
       <c r="B14">
-        <v>7.0710000000000006E-5</v>
+        <v>3.4300000000000002E-6</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>-2.77</v>
+        <v>1.27</v>
       </c>
       <c r="E14">
-        <v>5.72</v>
+        <v>20.5</v>
       </c>
       <c r="F14">
-        <v>46.43</v>
+        <v>186.09</v>
       </c>
       <c r="H14" s="1">
-        <v>44177238</v>
+        <v>14089707</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1">
-        <v>75209200</v>
+        <v>253773946</v>
       </c>
       <c r="K14">
-        <v>1.1463099999999999</v>
+        <v>5.5520699999999999E-2</v>
       </c>
       <c r="L14" s="1">
-        <v>436778</v>
+        <v>376626</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2">
         <v>43107</v>
       </c>
       <c r="O14" s="3">
-        <v>0.67413194444444446</v>
+        <v>0.88844907407407403</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1555,46 +1561,46 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>37109887</v>
+        <v>16714020</v>
       </c>
       <c r="B15">
-        <v>6.7799999999999995E-5</v>
+        <v>5.3709999999999999E-5</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>-0.54</v>
+        <v>2.79</v>
       </c>
       <c r="E15">
-        <v>14.68</v>
+        <v>-3.37</v>
       </c>
       <c r="F15">
-        <v>81.010000000000005</v>
+        <v>164.81</v>
       </c>
       <c r="H15" s="1">
-        <v>40785250</v>
+        <v>14521826</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="J15" s="1">
-        <v>79184116</v>
+        <v>16714020</v>
       </c>
       <c r="K15">
-        <v>1.09904</v>
+        <v>0.86884099999999997</v>
       </c>
       <c r="L15" s="1">
-        <v>1101990</v>
+        <v>123776</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2">
         <v>43107</v>
       </c>
       <c r="O15" s="3">
-        <v>0.52246527777777774</v>
+        <v>0.55734953703703705</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1602,49 +1608,46 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15950400</v>
+        <v>62366926</v>
       </c>
       <c r="B16">
-        <v>1.5672E-4</v>
+        <v>7.4679999999999996E-5</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D16">
-        <v>7.21</v>
+        <v>2.88</v>
       </c>
       <c r="E16">
-        <v>-2.0499999999999998</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F16">
-        <v>44.68</v>
-      </c>
-      <c r="G16">
-        <v>21000000</v>
+        <v>164.46</v>
       </c>
       <c r="H16" s="1">
-        <v>40522789</v>
+        <v>75190814</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="J16" s="1">
-        <v>15950400</v>
+        <v>1395076054</v>
       </c>
       <c r="K16">
-        <v>2.5405500000000001</v>
+        <v>1.2056199999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>433836</v>
+        <v>29120900</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="N16" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O16" s="3">
-        <v>0.7776967592592593</v>
+        <v>0.68928240740740743</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1652,46 +1655,49 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17029321</v>
+        <v>22791750</v>
       </c>
       <c r="B17">
-        <v>1.2747999999999999E-4</v>
+        <v>4.7389999999999999E-5</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>0.11</v>
+        <v>-1.9</v>
       </c>
       <c r="E17">
-        <v>-7.35</v>
+        <v>113.21</v>
       </c>
       <c r="F17">
-        <v>2.93</v>
+        <v>153.53</v>
+      </c>
+      <c r="G17">
+        <v>84000000</v>
       </c>
       <c r="H17" s="1">
-        <v>35191943</v>
+        <v>17472999</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1">
-        <v>200000000</v>
+        <v>22791750</v>
       </c>
       <c r="K17">
-        <v>2.0665499999999999</v>
+        <v>0.76663700000000001</v>
       </c>
       <c r="L17" s="1">
-        <v>505459</v>
+        <v>589630</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N17" s="2">
-        <v>43106</v>
+        <v>43105</v>
       </c>
       <c r="O17" s="3">
-        <v>0.83261574074074074</v>
+        <v>0.7654050925925926</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1699,49 +1705,46 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3592379</v>
+        <v>14400000</v>
       </c>
       <c r="B18">
-        <v>5.3919999999999999E-4</v>
+        <v>6.9049999999999998E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D18">
-        <v>-0.94</v>
+        <v>4.04</v>
       </c>
       <c r="E18">
-        <v>-1.34</v>
+        <v>91.44</v>
       </c>
       <c r="F18">
-        <v>-12.52</v>
-      </c>
-      <c r="G18">
-        <v>100000000</v>
+        <v>153.33000000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>31401311</v>
+        <v>16083792</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1">
-        <v>82630002</v>
+        <v>24000000</v>
       </c>
       <c r="K18">
-        <v>8.7410899999999998</v>
+        <v>1.11693</v>
       </c>
       <c r="L18" s="1">
-        <v>103001</v>
+        <v>1820680</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N18" s="2">
-        <v>43105</v>
+        <v>43107</v>
       </c>
       <c r="O18" s="3">
-        <v>0.54931712962962964</v>
+        <v>0.21577546296296299</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1749,46 +1752,46 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>25000000</v>
+        <v>17873502</v>
       </c>
       <c r="B19">
-        <v>7.3910000000000002E-5</v>
+        <v>7.9889999999999996E-5</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>2.16</v>
+        <v>-6.68</v>
       </c>
       <c r="E19">
-        <v>18.97</v>
+        <v>-9.75</v>
       </c>
       <c r="F19">
-        <v>88.19</v>
+        <v>143.5</v>
       </c>
       <c r="H19" s="1">
-        <v>29956250</v>
+        <v>23098463</v>
       </c>
       <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19803895</v>
+      </c>
+      <c r="K19">
+        <v>1.29233</v>
+      </c>
+      <c r="L19" s="1">
+        <v>511337</v>
+      </c>
+      <c r="M19">
         <v>82</v>
-      </c>
-      <c r="J19" s="1">
-        <v>92628346</v>
-      </c>
-      <c r="K19">
-        <v>1.19825</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1501330</v>
-      </c>
-      <c r="M19">
-        <v>65</v>
       </c>
       <c r="N19" s="2">
         <v>43107</v>
       </c>
       <c r="O19" s="3">
-        <v>0.75539351851851855</v>
+        <v>0.32972222222222219</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1796,46 +1799,46 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2799476</v>
+        <v>446303</v>
       </c>
       <c r="B20">
-        <v>6.3272999999999997E-4</v>
+        <v>6.3069000000000005E-4</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>-10.67</v>
+        <v>2.75</v>
       </c>
       <c r="E20">
-        <v>27.77</v>
+        <v>41.6</v>
       </c>
       <c r="F20">
-        <v>104.56</v>
+        <v>128.75</v>
       </c>
       <c r="H20" s="1">
-        <v>28715347</v>
+        <v>4539924</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1">
-        <v>2812073</v>
+        <v>446303</v>
       </c>
       <c r="K20">
-        <v>10.257400000000001</v>
+        <v>10.1723</v>
       </c>
       <c r="L20" s="1">
-        <v>188453</v>
+        <v>2091280</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N20" s="2">
-        <v>43105</v>
+        <v>43107</v>
       </c>
       <c r="O20" s="3">
-        <v>6.6886574074074071E-2</v>
+        <v>0.86165509259259254</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1843,46 +1846,46 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44713594</v>
+        <v>191381257</v>
       </c>
       <c r="B21">
-        <v>3.8940000000000003E-5</v>
+        <v>1.117E-5</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>-2.04</v>
+        <v>1.62</v>
       </c>
       <c r="E21">
-        <v>14.6</v>
+        <v>10.68</v>
       </c>
       <c r="F21">
-        <v>-4.3099999999999996</v>
+        <v>113.76</v>
       </c>
       <c r="H21" s="1">
-        <v>28226798</v>
+        <v>34657615</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1">
-        <v>70981320</v>
+        <v>191381257</v>
       </c>
       <c r="K21">
-        <v>0.63127999999999995</v>
+        <v>0.181092</v>
       </c>
       <c r="L21" s="1">
-        <v>270856</v>
+        <v>374025</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N21" s="2">
         <v>43107</v>
       </c>
       <c r="O21" s="3">
-        <v>0.77129629629629637</v>
+        <v>0.6519328703703704</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1890,46 +1893,46 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7360121</v>
+        <v>1849570</v>
       </c>
       <c r="B22">
-        <v>2.2906000000000001E-4</v>
+        <v>7.5989999999999996E-5</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>0.67</v>
+        <v>2.99</v>
       </c>
       <c r="E22">
-        <v>-1.68</v>
+        <v>29.07</v>
       </c>
       <c r="F22">
-        <v>109.79</v>
+        <v>113.3</v>
       </c>
       <c r="H22" s="1">
-        <v>27331000</v>
+        <v>2266777</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1">
-        <v>9200151</v>
+        <v>1849570</v>
       </c>
       <c r="K22">
-        <v>3.71339</v>
+        <v>1.22557</v>
       </c>
       <c r="L22" s="1">
-        <v>353040</v>
+        <v>54642.1</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="N22" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O22" s="3">
-        <v>0.40726851851851853</v>
+        <v>0.88633101851851848</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1937,49 +1940,46 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2827061</v>
+        <v>1012766</v>
       </c>
       <c r="B23">
-        <v>5.5170000000000002E-4</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>-1.27</v>
+        <v>1.93</v>
       </c>
       <c r="E23">
-        <v>74.06</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="F23">
-        <v>3.75</v>
-      </c>
-      <c r="G23">
-        <v>88888888</v>
+        <v>112.78</v>
       </c>
       <c r="H23" s="1">
-        <v>25230591</v>
+        <v>10292838</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1">
-        <v>11715950</v>
+        <v>1832766</v>
       </c>
       <c r="K23">
-        <v>8.9246700000000008</v>
+        <v>10.1631</v>
       </c>
       <c r="L23" s="1">
-        <v>1403710</v>
+        <v>293545</v>
       </c>
       <c r="M23">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="N23" s="2">
         <v>43107</v>
       </c>
       <c r="O23" s="3">
-        <v>0.8536689814814814</v>
+        <v>0.88715277777777779</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1987,46 +1987,46 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>17873502</v>
+        <v>7360121</v>
       </c>
       <c r="B24">
-        <v>7.9889999999999996E-5</v>
+        <v>2.2906000000000001E-4</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="D24">
-        <v>-6.68</v>
+        <v>0.67</v>
       </c>
       <c r="E24">
-        <v>-9.75</v>
+        <v>-1.68</v>
       </c>
       <c r="F24">
-        <v>143.5</v>
+        <v>109.79</v>
       </c>
       <c r="H24" s="1">
-        <v>23098463</v>
+        <v>27331000</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="J24" s="1">
-        <v>19803895</v>
+        <v>9200151</v>
       </c>
       <c r="K24">
-        <v>1.29233</v>
+        <v>3.71339</v>
       </c>
       <c r="L24" s="1">
-        <v>511337</v>
+        <v>353040</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="N24" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O24" s="3">
-        <v>0.32972222222222219</v>
+        <v>0.40726851851851853</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2034,46 +2034,49 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1823384</v>
+        <v>800084</v>
       </c>
       <c r="B25">
-        <v>7.0993E-4</v>
+        <v>1.255E-3</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25">
-        <v>5.4</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E25">
-        <v>19.95</v>
+        <v>26.02</v>
       </c>
       <c r="F25">
-        <v>69.7</v>
+        <v>106.63</v>
+      </c>
+      <c r="G25">
+        <v>60000000</v>
       </c>
       <c r="H25" s="1">
-        <v>20940287</v>
+        <v>16243141</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J25" s="1">
-        <v>1823384</v>
+        <v>3800084</v>
       </c>
       <c r="K25">
-        <v>11.484299999999999</v>
+        <v>20.3018</v>
       </c>
       <c r="L25" s="1">
-        <v>792294</v>
+        <v>2313920</v>
       </c>
       <c r="M25">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="N25" s="2">
         <v>43106</v>
       </c>
       <c r="O25" s="3">
-        <v>0.59857638888888887</v>
+        <v>0.82437499999999997</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2081,49 +2084,46 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>22791750</v>
+        <v>2799476</v>
       </c>
       <c r="B26">
-        <v>4.7389999999999999E-5</v>
+        <v>6.3272999999999997E-4</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D26">
-        <v>-1.9</v>
+        <v>-10.67</v>
       </c>
       <c r="E26">
-        <v>113.21</v>
+        <v>27.77</v>
       </c>
       <c r="F26">
-        <v>153.53</v>
-      </c>
-      <c r="G26">
-        <v>84000000</v>
+        <v>104.56</v>
       </c>
       <c r="H26" s="1">
-        <v>17472999</v>
+        <v>28715347</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1">
-        <v>22791750</v>
+        <v>2812073</v>
       </c>
       <c r="K26">
-        <v>0.76663700000000001</v>
+        <v>10.257400000000001</v>
       </c>
       <c r="L26" s="1">
-        <v>589630</v>
+        <v>188453</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N26" s="2">
         <v>43105</v>
       </c>
       <c r="O26" s="3">
-        <v>0.7654050925925926</v>
+        <v>6.6886574074074071E-2</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2131,46 +2131,49 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>6278008</v>
+        <v>14700750</v>
       </c>
       <c r="B27">
-        <v>2.2481000000000001E-4</v>
+        <v>2.7250000000000002E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>12.24</v>
+        <v>4.37</v>
       </c>
       <c r="E27">
-        <v>13.44</v>
+        <v>-0.45</v>
       </c>
       <c r="F27">
-        <v>18.62</v>
+        <v>104.43</v>
+      </c>
+      <c r="G27">
+        <v>100000000</v>
       </c>
       <c r="H27" s="1">
-        <v>22534219</v>
+        <v>6462788</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="J27" s="1">
-        <v>6278008</v>
+        <v>15700750</v>
       </c>
       <c r="K27">
-        <v>3.5893899999999999</v>
+        <v>0.43962299999999999</v>
       </c>
       <c r="L27" s="1">
-        <v>1320700</v>
+        <v>141927</v>
       </c>
       <c r="M27">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="N27" s="2">
-        <v>43105</v>
+        <v>43106</v>
       </c>
       <c r="O27" s="3">
-        <v>0.85606481481481478</v>
+        <v>0.97446759259259252</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2178,46 +2181,49 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>76593701</v>
+        <v>3665735</v>
       </c>
       <c r="B28">
-        <v>6.6459999999999997E-5</v>
+        <v>1.4245999999999999E-4</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>0.38</v>
+        <v>-0.01</v>
       </c>
       <c r="E28">
-        <v>-3.86</v>
+        <v>65.48</v>
       </c>
       <c r="F28">
-        <v>27.9</v>
+        <v>98.39</v>
+      </c>
+      <c r="G28">
+        <v>280000000</v>
       </c>
       <c r="H28" s="1">
-        <v>82177382</v>
+        <v>8424556</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1">
-        <v>76593701</v>
+        <v>3665735</v>
       </c>
       <c r="K28">
-        <v>1.0729</v>
+        <v>2.29819</v>
       </c>
       <c r="L28" s="1">
-        <v>7674630</v>
+        <v>510491</v>
       </c>
       <c r="M28">
-        <v>1706</v>
+        <v>71</v>
       </c>
       <c r="N28" s="2">
         <v>43107</v>
       </c>
       <c r="O28" s="3">
-        <v>0.70540509259259254</v>
+        <v>0.89572916666666658</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2225,46 +2231,46 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>175109299</v>
+        <v>377536199</v>
       </c>
       <c r="B29">
-        <v>2.881E-5</v>
+        <v>6.8000000000000001E-6</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D29">
-        <v>-2.71</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E29">
-        <v>58.93</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="F29">
-        <v>248.63</v>
+        <v>97.61</v>
       </c>
       <c r="H29" s="1">
-        <v>81446662</v>
+        <v>41637712</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J29" s="1">
-        <v>245209299</v>
+        <v>390536199</v>
       </c>
       <c r="K29">
-        <v>0.465119</v>
+        <v>0.110288</v>
       </c>
       <c r="L29" s="1">
-        <v>2001020</v>
+        <v>5613860</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="N29" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O29" s="3">
-        <v>0.83089120370370362</v>
+        <v>0.39988425925925924</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2272,46 +2278,49 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>377536199</v>
+        <v>1334298</v>
       </c>
       <c r="B30">
-        <v>6.8000000000000001E-6</v>
+        <v>7.2022999999999998E-4</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>2.2999999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="E30">
-        <v>34.130000000000003</v>
+        <v>12.02</v>
       </c>
       <c r="F30">
-        <v>97.61</v>
+        <v>95.86</v>
+      </c>
+      <c r="G30">
+        <v>42000000</v>
       </c>
       <c r="H30" s="1">
-        <v>41637712</v>
+        <v>15545769</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="J30" s="1">
-        <v>390536199</v>
+        <v>2084298</v>
       </c>
       <c r="K30">
-        <v>0.110288</v>
+        <v>11.6509</v>
       </c>
       <c r="L30" s="1">
-        <v>5613860</v>
+        <v>374176</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="N30" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O30" s="3">
-        <v>0.39988425925925924</v>
+        <v>0.86651620370370364</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -2319,46 +2328,46 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>8114041</v>
+        <v>15746668</v>
       </c>
       <c r="B31">
-        <v>4.1981000000000001E-4</v>
+        <v>2.3669999999999999E-5</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>-4.4000000000000004</v>
+        <v>-6.04</v>
       </c>
       <c r="E31">
-        <v>28.01</v>
+        <v>-9.58</v>
       </c>
       <c r="F31">
-        <v>44.75</v>
+        <v>94.21</v>
       </c>
       <c r="H31" s="1">
-        <v>55221322</v>
+        <v>6012755</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1">
-        <v>11614041</v>
+        <v>22940540</v>
       </c>
       <c r="K31">
-        <v>6.80565</v>
+        <v>0.38184299999999999</v>
       </c>
       <c r="L31" s="1">
-        <v>1161290</v>
+        <v>239576</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N31" s="2">
         <v>43107</v>
       </c>
       <c r="O31" s="3">
-        <v>0.78239583333333329</v>
+        <v>0.88938657407407407</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2366,96 +2375,93 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>18582933</v>
+        <v>31478280</v>
       </c>
       <c r="B32">
-        <v>1.5317999999999999E-4</v>
+        <v>3.561E-5</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>11.79</v>
+        <v>0.2</v>
       </c>
       <c r="E32">
-        <v>24.44</v>
+        <v>59.83</v>
       </c>
       <c r="F32">
-        <v>232.72</v>
+        <v>91.97</v>
       </c>
       <c r="H32" s="1">
-        <v>46145510</v>
+        <v>18133409</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J32" s="1">
-        <v>33787150</v>
+        <v>33668222</v>
       </c>
       <c r="K32">
-        <v>2.4832200000000002</v>
+        <v>0.57606100000000005</v>
       </c>
       <c r="L32" s="1">
-        <v>1670580</v>
+        <v>835014</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N32" s="2">
         <v>43106</v>
       </c>
       <c r="O32" s="3">
-        <v>0.91267361111111101</v>
+        <v>0.77325231481481482</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6872211</v>
+        <v>25000000</v>
       </c>
       <c r="B33">
-        <v>3.5E-4</v>
+        <v>7.3910000000000002E-5</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>-9.5500000000000007</v>
+        <v>2.16</v>
       </c>
       <c r="E33">
-        <v>25.26</v>
+        <v>18.97</v>
       </c>
       <c r="F33">
-        <v>74.010000000000005</v>
-      </c>
-      <c r="G33">
-        <v>109999978</v>
+        <v>88.19</v>
       </c>
       <c r="H33" s="1">
-        <v>38992516</v>
+        <v>29956250</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="J33" s="1">
-        <v>7496623</v>
+        <v>92628346</v>
       </c>
       <c r="K33">
-        <v>5.67394</v>
+        <v>1.19825</v>
       </c>
       <c r="L33" s="1">
-        <v>1289150</v>
+        <v>1501330</v>
       </c>
       <c r="M33">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N33" s="2">
         <v>43107</v>
       </c>
       <c r="O33" s="3">
-        <v>0.85005787037037039</v>
+        <v>0.75539351851851855</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2463,46 +2469,46 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>27800108</v>
+        <v>40000000</v>
       </c>
       <c r="B34">
-        <v>8.6149999999999993E-5</v>
+        <v>1.2947999999999999E-4</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>-0.26</v>
+        <v>0.43</v>
       </c>
       <c r="E34">
-        <v>-6.58</v>
+        <v>-0.24</v>
       </c>
       <c r="F34">
-        <v>39.68</v>
+        <v>83.3</v>
       </c>
       <c r="H34" s="1">
-        <v>38826187</v>
+        <v>83615600</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J34" s="1">
-        <v>27800108</v>
+        <v>62500000</v>
       </c>
       <c r="K34">
-        <v>1.39662</v>
+        <v>2.0903900000000002</v>
       </c>
       <c r="L34" s="1">
-        <v>386491</v>
+        <v>2181470</v>
       </c>
       <c r="M34">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="N34" s="2">
         <v>43106</v>
       </c>
       <c r="O34" s="3">
-        <v>0.4138425925925926</v>
+        <v>0.98006944444444455</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2510,93 +2516,93 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>910900</v>
+        <v>37109887</v>
       </c>
       <c r="B35">
-        <v>2.6053999999999999E-3</v>
+        <v>6.7799999999999995E-5</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>0.03</v>
+        <v>-0.54</v>
       </c>
       <c r="E35">
-        <v>-2.39</v>
+        <v>14.68</v>
       </c>
       <c r="F35">
-        <v>251.78</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="H35" s="1">
-        <v>38473498</v>
+        <v>40785250</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1">
-        <v>1060601</v>
+        <v>79184116</v>
       </c>
       <c r="K35">
-        <v>42.236800000000002</v>
+        <v>1.09904</v>
       </c>
       <c r="L35" s="1">
-        <v>809788</v>
+        <v>1101990</v>
       </c>
       <c r="M35">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="N35" s="2">
         <v>43107</v>
       </c>
       <c r="O35" s="3">
-        <v>0.80996527777777771</v>
+        <v>0.52246527777777774</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>191381257</v>
+        <v>25009250</v>
       </c>
       <c r="B36">
-        <v>1.117E-5</v>
+        <v>1.4049000000000001E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="D36">
-        <v>1.62</v>
+        <v>3.19</v>
       </c>
       <c r="E36">
-        <v>10.68</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>113.76</v>
+        <v>79.66</v>
       </c>
       <c r="H36" s="1">
-        <v>34657615</v>
+        <v>56960066</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="J36" s="1">
-        <v>191381257</v>
+        <v>100000000</v>
       </c>
       <c r="K36">
-        <v>0.181092</v>
+        <v>2.2775599999999998</v>
       </c>
       <c r="L36" s="1">
-        <v>374025</v>
+        <v>11128100</v>
       </c>
       <c r="M36">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="N36" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O36" s="3">
-        <v>0.6519328703703704</v>
+        <v>0.6648263888888889</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2604,46 +2610,46 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>17768075</v>
+        <v>42701039</v>
       </c>
       <c r="B37">
-        <v>9.6420000000000002E-5</v>
+        <v>9.993E-5</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D37">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.64</v>
+        <v>15.84</v>
       </c>
       <c r="F37">
-        <v>22.04</v>
+        <v>77.39</v>
       </c>
       <c r="H37" s="1">
-        <v>27774166</v>
+        <v>68891722</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J37" s="1">
-        <v>17768075</v>
+        <v>58540763</v>
       </c>
       <c r="K37">
-        <v>1.56315</v>
+        <v>1.6133500000000001</v>
       </c>
       <c r="L37" s="1">
-        <v>1367580</v>
+        <v>2497170</v>
       </c>
       <c r="M37">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="N37" s="2">
         <v>43107</v>
       </c>
       <c r="O37" s="3">
-        <v>0.75282407407407403</v>
+        <v>0.7989814814814814</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2651,49 +2657,46 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1831799</v>
+        <v>15098057</v>
       </c>
       <c r="B38">
-        <v>6.7922999999999996E-4</v>
+        <v>4.0939999999999998E-5</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>1.19</v>
+        <v>-1.24</v>
       </c>
       <c r="E38">
-        <v>5.42</v>
+        <v>-6.65</v>
       </c>
       <c r="F38">
-        <v>43.19</v>
-      </c>
-      <c r="G38">
-        <v>27000000</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="H38" s="1">
-        <v>20127263</v>
+        <v>9970863</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="J38" s="1">
-        <v>2149345</v>
+        <v>15098057</v>
       </c>
       <c r="K38">
-        <v>10.9877</v>
+        <v>0.66040699999999997</v>
       </c>
       <c r="L38" s="1">
-        <v>562573</v>
+        <v>96881.9</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N38" s="2">
         <v>43107</v>
       </c>
       <c r="O38" s="3">
-        <v>0.62189814814814814</v>
+        <v>0.86386574074074074</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -2701,49 +2704,46 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>33192925</v>
+        <v>30324292</v>
       </c>
       <c r="B39">
-        <v>3.595E-5</v>
+        <v>1.0009E-4</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>-1.28</v>
+        <v>3.56</v>
       </c>
       <c r="E39">
-        <v>15.2</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="F39">
-        <v>45.47</v>
-      </c>
-      <c r="G39">
-        <v>68000000</v>
+        <v>75.63</v>
       </c>
       <c r="H39" s="1">
-        <v>19303412</v>
+        <v>49042265</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1">
-        <v>33192925</v>
+        <v>30324292</v>
       </c>
       <c r="K39">
-        <v>0.58155199999999996</v>
+        <v>1.6172599999999999</v>
       </c>
       <c r="L39" s="1">
-        <v>69355.8</v>
+        <v>1869900</v>
       </c>
       <c r="M39">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="N39" s="2">
         <v>43107</v>
       </c>
       <c r="O39" s="3">
-        <v>0.71333333333333337</v>
+        <v>0.88525462962962964</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -2751,49 +2751,46 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>444623</v>
+        <v>10500000</v>
       </c>
       <c r="B40">
-        <v>2.5807099999999999E-3</v>
+        <v>4.6324000000000002E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>5.34</v>
+        <v>0.7</v>
       </c>
       <c r="E40">
-        <v>-2.37</v>
+        <v>21.79</v>
       </c>
       <c r="F40">
-        <v>43.85</v>
-      </c>
-      <c r="G40">
-        <v>31800000</v>
+        <v>74.040000000000006</v>
       </c>
       <c r="H40" s="1">
-        <v>18561829</v>
+        <v>78524670</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="J40" s="1">
-        <v>1269610</v>
+        <v>10500000</v>
       </c>
       <c r="K40">
-        <v>41.747300000000003</v>
+        <v>7.4785399999999997</v>
       </c>
       <c r="L40" s="1">
-        <v>588210</v>
+        <v>1011310</v>
       </c>
       <c r="M40">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N40" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O40" s="3">
-        <v>0.88711805555555545</v>
+        <v>0.23299768518518518</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -2801,46 +2798,49 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>31478280</v>
+        <v>6872211</v>
       </c>
       <c r="B41">
-        <v>3.561E-5</v>
+        <v>3.5E-4</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>-9.5500000000000007</v>
       </c>
       <c r="E41">
-        <v>59.83</v>
+        <v>25.26</v>
       </c>
       <c r="F41">
-        <v>91.97</v>
+        <v>74.010000000000005</v>
+      </c>
+      <c r="G41">
+        <v>109999978</v>
       </c>
       <c r="H41" s="1">
-        <v>18133409</v>
+        <v>38992516</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="J41" s="1">
-        <v>33668222</v>
+        <v>7496623</v>
       </c>
       <c r="K41">
-        <v>0.57606100000000005</v>
+        <v>5.67394</v>
       </c>
       <c r="L41" s="1">
-        <v>835014</v>
+        <v>1289150</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N41" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O41" s="3">
-        <v>0.77325231481481482</v>
+        <v>0.85005787037037039</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -2848,49 +2848,46 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>12590610</v>
+        <v>16737400</v>
       </c>
       <c r="B42">
-        <v>8.5719999999999999E-5</v>
+        <v>2.8938999999999999E-4</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>0.02</v>
+        <v>-4.41</v>
       </c>
       <c r="E42">
-        <v>-7.94</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F42">
-        <v>-4.13</v>
-      </c>
-      <c r="G42">
-        <v>210000000</v>
+        <v>69.98</v>
       </c>
       <c r="H42" s="1">
-        <v>17459525</v>
+        <v>78195961</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1">
-        <v>16690610</v>
+        <v>16737400</v>
       </c>
       <c r="K42">
-        <v>1.3867100000000001</v>
+        <v>4.6719299999999997</v>
       </c>
       <c r="L42" s="1">
-        <v>85641.3</v>
+        <v>1646300</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>393</v>
       </c>
       <c r="N42" s="2">
         <v>43107</v>
       </c>
       <c r="O42" s="3">
-        <v>0.62315972222222216</v>
+        <v>0.40854166666666664</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -2898,49 +2895,46 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>85871900</v>
+        <v>1823384</v>
       </c>
       <c r="B43">
-        <v>1.1919999999999999E-5</v>
+        <v>7.0993E-4</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="E43">
-        <v>0.98</v>
+        <v>19.95</v>
       </c>
       <c r="F43">
-        <v>48.31</v>
-      </c>
-      <c r="G43">
-        <v>400000000</v>
+        <v>69.7</v>
       </c>
       <c r="H43" s="1">
-        <v>16555244</v>
+        <v>20940287</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="J43" s="1">
-        <v>97871900</v>
+        <v>1823384</v>
       </c>
       <c r="K43">
-        <v>0.19278999999999999</v>
+        <v>11.484299999999999</v>
       </c>
       <c r="L43" s="1">
-        <v>86918.6</v>
+        <v>792294</v>
       </c>
       <c r="M43">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O43" s="3">
-        <v>0.81525462962962969</v>
+        <v>0.59857638888888887</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -2948,46 +2942,46 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>647370</v>
+        <v>40592900</v>
       </c>
       <c r="B44">
-        <v>1.5760500000000001E-3</v>
+        <v>2.12E-6</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D44">
-        <v>-3.08</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="E44">
-        <v>20.64</v>
+        <v>6.76</v>
       </c>
       <c r="F44">
-        <v>201.56</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="H44" s="1">
-        <v>16504968</v>
+        <v>1390774</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J44" s="1">
-        <v>997370</v>
+        <v>45625900</v>
       </c>
       <c r="K44">
-        <v>25.4954</v>
+        <v>3.42615E-2</v>
       </c>
       <c r="L44" s="1">
-        <v>509971</v>
+        <v>35311.699999999997</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N44" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O44" s="3">
-        <v>0.33445601851851853</v>
+        <v>0.74732638888888892</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -2995,49 +2989,46 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>800084</v>
+        <v>1331155614</v>
       </c>
       <c r="B45">
-        <v>1.255E-3</v>
+        <v>6.5000000000000002E-7</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="D45">
-        <v>2.2200000000000002</v>
+        <v>-0.46</v>
       </c>
       <c r="E45">
-        <v>26.02</v>
+        <v>0.19</v>
       </c>
       <c r="F45">
-        <v>106.63</v>
-      </c>
-      <c r="G45">
-        <v>60000000</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H45" s="1">
-        <v>16243141</v>
+        <v>13931076</v>
       </c>
       <c r="I45" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="J45" s="1">
-        <v>3800084</v>
+        <v>8885254986</v>
       </c>
       <c r="K45">
-        <v>20.3018</v>
+        <v>1.04654E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>2313920</v>
+        <v>73140.3</v>
       </c>
       <c r="M45">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N45" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O45" s="3">
-        <v>0.82437499999999997</v>
+        <v>0.83879629629629626</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -3045,46 +3036,46 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>14400000</v>
+        <v>547187076</v>
       </c>
       <c r="B46">
-        <v>6.9049999999999998E-5</v>
+        <v>5.2900000000000002E-6</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D46">
-        <v>4.04</v>
+        <v>-0.42</v>
       </c>
       <c r="E46">
-        <v>91.44</v>
+        <v>-7.53</v>
       </c>
       <c r="F46">
-        <v>153.33000000000001</v>
+        <v>66.52</v>
       </c>
       <c r="H46" s="1">
-        <v>16083792</v>
+        <v>46939458</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J46" s="1">
-        <v>24000000</v>
+        <v>547187076</v>
       </c>
       <c r="K46">
-        <v>1.11693</v>
+        <v>8.5783200000000004E-2</v>
       </c>
       <c r="L46" s="1">
-        <v>1820680</v>
+        <v>5488010</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="N46" s="2">
         <v>43107</v>
       </c>
       <c r="O46" s="3">
-        <v>0.21577546296296299</v>
+        <v>0.81070601851851853</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3092,49 +3083,46 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1334298</v>
+        <v>50000000</v>
       </c>
       <c r="B47">
-        <v>7.2022999999999998E-4</v>
+        <v>1.0679999999999999E-5</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D47">
-        <v>2.91</v>
+        <v>-1.55</v>
       </c>
       <c r="E47">
-        <v>12.02</v>
+        <v>-0.24</v>
       </c>
       <c r="F47">
-        <v>95.86</v>
-      </c>
-      <c r="G47">
-        <v>42000000</v>
+        <v>58.74</v>
       </c>
       <c r="H47" s="1">
-        <v>15545769</v>
+        <v>8613450</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="J47" s="1">
-        <v>2084298</v>
+        <v>50000000</v>
       </c>
       <c r="K47">
-        <v>11.6509</v>
+        <v>0.17226900000000001</v>
       </c>
       <c r="L47" s="1">
-        <v>374176</v>
+        <v>63448</v>
       </c>
       <c r="M47">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="N47" s="2">
-        <v>43107</v>
+        <v>43105</v>
       </c>
       <c r="O47" s="3">
-        <v>0.86651620370370364</v>
+        <v>0.43146990740740737</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -3142,46 +3130,46 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>16714020</v>
+        <v>88183483</v>
       </c>
       <c r="B48">
-        <v>5.3709999999999999E-5</v>
+        <v>1.4699999999999999E-6</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D48">
-        <v>2.79</v>
+        <v>-9.8699999999999992</v>
       </c>
       <c r="E48">
-        <v>-3.37</v>
+        <v>3.84</v>
       </c>
       <c r="F48">
-        <v>164.81</v>
+        <v>55.8</v>
       </c>
       <c r="H48" s="1">
-        <v>14521826</v>
+        <v>2092435</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="J48" s="1">
-        <v>16714020</v>
+        <v>488183483</v>
       </c>
       <c r="K48">
-        <v>0.86884099999999997</v>
+        <v>2.3728200000000001E-2</v>
       </c>
       <c r="L48" s="1">
-        <v>123776</v>
+        <v>65005.3</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N48" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O48" s="3">
-        <v>0.55734953703703705</v>
+        <v>0.73653935185185182</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -3189,46 +3177,46 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2319559372</v>
+        <v>7906397</v>
       </c>
       <c r="B49">
-        <v>3.8000000000000001E-7</v>
+        <v>5.2028999999999997E-4</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D49">
-        <v>28.68</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E49">
-        <v>101.35</v>
+        <v>-2.12</v>
       </c>
       <c r="F49">
-        <v>568.75</v>
+        <v>55.12</v>
       </c>
       <c r="H49" s="1">
-        <v>14258656</v>
+        <v>66410568</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J49" s="1">
-        <v>2319559372</v>
+        <v>16906397</v>
       </c>
       <c r="K49">
-        <v>6.1471399999999997E-3</v>
+        <v>8.3995999999999995</v>
       </c>
       <c r="L49" s="1">
-        <v>473829</v>
+        <v>7075440</v>
       </c>
       <c r="M49">
-        <v>599</v>
+        <v>327</v>
       </c>
       <c r="N49" s="2">
         <v>43107</v>
       </c>
       <c r="O49" s="3">
-        <v>0.87421296296296302</v>
+        <v>0.84230324074074081</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -3236,46 +3224,49 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>253773946</v>
+        <v>85871900</v>
       </c>
       <c r="B50">
-        <v>3.4300000000000002E-6</v>
+        <v>1.1919999999999999E-5</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D50">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>20.5</v>
+        <v>0.98</v>
       </c>
       <c r="F50">
-        <v>186.09</v>
+        <v>48.31</v>
+      </c>
+      <c r="G50">
+        <v>400000000</v>
       </c>
       <c r="H50" s="1">
-        <v>14089707</v>
+        <v>16555244</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="J50" s="1">
-        <v>253773946</v>
+        <v>97871900</v>
       </c>
       <c r="K50">
-        <v>5.5520699999999999E-2</v>
+        <v>0.19278999999999999</v>
       </c>
       <c r="L50" s="1">
-        <v>376626</v>
+        <v>86918.6</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N50" s="2">
         <v>43107</v>
       </c>
       <c r="O50" s="3">
-        <v>0.88844907407407403</v>
+        <v>0.81525462962962969</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -3283,46 +3274,46 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1331155614</v>
+        <v>38538648</v>
       </c>
       <c r="B51">
-        <v>6.5000000000000002E-7</v>
+        <v>7.0710000000000006E-5</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D51">
-        <v>-0.46</v>
+        <v>-2.77</v>
       </c>
       <c r="E51">
-        <v>0.19</v>
+        <v>5.72</v>
       </c>
       <c r="F51">
-        <v>66.599999999999994</v>
+        <v>46.43</v>
       </c>
       <c r="H51" s="1">
-        <v>13931076</v>
+        <v>44177238</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="J51" s="1">
-        <v>8885254986</v>
+        <v>75209200</v>
       </c>
       <c r="K51">
-        <v>1.04654E-2</v>
+        <v>1.1463099999999999</v>
       </c>
       <c r="L51" s="1">
-        <v>73140.3</v>
+        <v>436778</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N51" s="2">
         <v>43107</v>
       </c>
       <c r="O51" s="3">
-        <v>0.83879629629629626</v>
+        <v>0.67413194444444446</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3330,46 +3321,49 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7745628</v>
+        <v>33192925</v>
       </c>
       <c r="B52">
-        <v>9.0279999999999996E-5</v>
+        <v>3.595E-5</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>-1.27</v>
+        <v>-1.28</v>
       </c>
       <c r="E52">
-        <v>-7.48</v>
+        <v>15.2</v>
       </c>
       <c r="F52">
-        <v>12.74</v>
+        <v>45.47</v>
+      </c>
+      <c r="G52">
+        <v>68000000</v>
       </c>
       <c r="H52" s="1">
-        <v>11280655</v>
+        <v>19303412</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="J52" s="1">
-        <v>7745628</v>
+        <v>33192925</v>
       </c>
       <c r="K52">
-        <v>1.4563900000000001</v>
+        <v>0.58155199999999996</v>
       </c>
       <c r="L52" s="1">
-        <v>822145</v>
+        <v>69355.8</v>
       </c>
       <c r="M52">
-        <v>1122</v>
+        <v>61</v>
       </c>
       <c r="N52" s="2">
         <v>43107</v>
       </c>
       <c r="O52" s="3">
-        <v>0.89298611111111104</v>
+        <v>0.71333333333333337</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -3377,46 +3371,46 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>22293890</v>
+        <v>8114041</v>
       </c>
       <c r="B53">
-        <v>3.3810000000000003E-5</v>
+        <v>4.1981000000000001E-4</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>7.33</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="E53">
-        <v>-4.46</v>
+        <v>28.01</v>
       </c>
       <c r="F53">
-        <v>10.57</v>
+        <v>44.75</v>
       </c>
       <c r="H53" s="1">
-        <v>12194468</v>
+        <v>55221322</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="J53" s="1">
-        <v>25264095</v>
+        <v>11614041</v>
       </c>
       <c r="K53">
-        <v>0.546987</v>
+        <v>6.80565</v>
       </c>
       <c r="L53" s="1">
-        <v>25238.799999999999</v>
+        <v>1161290</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N53" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O53" s="3">
-        <v>0.54399305555555555</v>
+        <v>0.78239583333333329</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3424,46 +3418,49 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1478645</v>
+        <v>15950400</v>
       </c>
       <c r="B54">
-        <v>5.0025000000000004E-4</v>
+        <v>1.5672E-4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D54">
-        <v>-0.14000000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="E54">
-        <v>-10.91</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="F54">
-        <v>44.61</v>
+        <v>44.68</v>
+      </c>
+      <c r="G54">
+        <v>21000000</v>
       </c>
       <c r="H54" s="1">
-        <v>11965772</v>
+        <v>40522789</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="J54" s="1">
-        <v>1478645</v>
+        <v>15950400</v>
       </c>
       <c r="K54">
-        <v>8.09239</v>
+        <v>2.5405500000000001</v>
       </c>
       <c r="L54" s="1">
-        <v>60438.9</v>
+        <v>433836</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N54" s="2">
         <v>43107</v>
       </c>
       <c r="O54" s="3">
-        <v>0.49972222222222223</v>
+        <v>0.7776967592592593</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3471,46 +3468,46 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1012766</v>
+        <v>1478645</v>
       </c>
       <c r="B55">
-        <v>6.3000000000000003E-4</v>
+        <v>5.0025000000000004E-4</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D55">
-        <v>1.93</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E55">
-        <v>19.170000000000002</v>
+        <v>-10.91</v>
       </c>
       <c r="F55">
-        <v>112.78</v>
+        <v>44.61</v>
       </c>
       <c r="H55" s="1">
-        <v>10292838</v>
+        <v>11965772</v>
       </c>
       <c r="I55" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="J55" s="1">
-        <v>1832766</v>
+        <v>1478645</v>
       </c>
       <c r="K55">
-        <v>10.1631</v>
+        <v>8.09239</v>
       </c>
       <c r="L55" s="1">
-        <v>293545</v>
+        <v>60438.9</v>
       </c>
       <c r="M55">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="N55" s="2">
         <v>43107</v>
       </c>
       <c r="O55" s="3">
-        <v>0.88715277777777779</v>
+        <v>0.49972222222222223</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -3518,46 +3515,49 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>15098057</v>
+        <v>444623</v>
       </c>
       <c r="B56">
-        <v>4.0939999999999998E-5</v>
+        <v>2.5807099999999999E-3</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D56">
-        <v>-1.24</v>
+        <v>5.34</v>
       </c>
       <c r="E56">
-        <v>-6.65</v>
+        <v>-2.37</v>
       </c>
       <c r="F56">
-        <v>76.459999999999994</v>
+        <v>43.85</v>
+      </c>
+      <c r="G56">
+        <v>31800000</v>
       </c>
       <c r="H56" s="1">
-        <v>9970863</v>
+        <v>18561829</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="J56" s="1">
-        <v>15098057</v>
+        <v>1269610</v>
       </c>
       <c r="K56">
-        <v>0.66040699999999997</v>
+        <v>41.747300000000003</v>
       </c>
       <c r="L56" s="1">
-        <v>96881.9</v>
+        <v>588210</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N56" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O56" s="3">
-        <v>0.86386574074074074</v>
+        <v>0.88711805555555545</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -3565,46 +3565,49 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>50000000</v>
+        <v>1831799</v>
       </c>
       <c r="B57">
-        <v>1.0679999999999999E-5</v>
+        <v>6.7922999999999996E-4</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D57">
-        <v>-1.55</v>
+        <v>1.19</v>
       </c>
       <c r="E57">
-        <v>-0.24</v>
+        <v>5.42</v>
       </c>
       <c r="F57">
-        <v>58.74</v>
+        <v>43.19</v>
+      </c>
+      <c r="G57">
+        <v>27000000</v>
       </c>
       <c r="H57" s="1">
-        <v>8613450</v>
+        <v>20127263</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="J57" s="1">
-        <v>50000000</v>
+        <v>2149345</v>
       </c>
       <c r="K57">
-        <v>0.17226900000000001</v>
+        <v>10.9877</v>
       </c>
       <c r="L57" s="1">
-        <v>63448</v>
+        <v>562573</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N57" s="2">
-        <v>43105</v>
+        <v>43107</v>
       </c>
       <c r="O57" s="3">
-        <v>0.43146990740740737</v>
+        <v>0.62189814814814814</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -3612,99 +3615,93 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>17813302</v>
+        <v>4736664</v>
       </c>
       <c r="B58">
-        <v>2.976E-5</v>
+        <v>6.4161999999999997E-4</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D58">
-        <v>-0.14000000000000001</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E58">
-        <v>65.88</v>
+        <v>54.59</v>
       </c>
       <c r="F58">
-        <v>228.58</v>
-      </c>
-      <c r="G58">
-        <v>19276800</v>
+        <v>42.17</v>
       </c>
       <c r="H58" s="1">
-        <v>8551169</v>
+        <v>49267937</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J58" s="1">
-        <v>17813302</v>
+        <v>19304529</v>
       </c>
       <c r="K58">
-        <v>0.48004400000000003</v>
+        <v>10.401400000000001</v>
       </c>
       <c r="L58" s="1">
-        <v>289280</v>
+        <v>1827470</v>
       </c>
       <c r="M58">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="N58" s="2">
         <v>43107</v>
       </c>
       <c r="O58" s="3">
-        <v>0.89222222222222225</v>
+        <v>0.88510416666666669</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3665735</v>
+        <v>10004944</v>
       </c>
       <c r="B59">
-        <v>1.4245999999999999E-4</v>
+        <v>4.9030000000000003E-5</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D59">
-        <v>-0.01</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="E59">
-        <v>65.48</v>
+        <v>-3.17</v>
       </c>
       <c r="F59">
-        <v>98.39</v>
-      </c>
-      <c r="G59">
-        <v>280000000</v>
+        <v>41.66</v>
       </c>
       <c r="H59" s="1">
-        <v>8424556</v>
+        <v>7913750</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J59" s="1">
-        <v>3665735</v>
+        <v>11104944</v>
       </c>
       <c r="K59">
-        <v>2.29819</v>
+        <v>0.79098400000000002</v>
       </c>
       <c r="L59" s="1">
-        <v>510491</v>
+        <v>92808.7</v>
       </c>
       <c r="M59">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N59" s="2">
         <v>43107</v>
       </c>
       <c r="O59" s="3">
-        <v>0.89572916666666658</v>
+        <v>0.71592592592592597</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -3712,46 +3709,46 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>10004944</v>
+        <v>27800108</v>
       </c>
       <c r="B60">
-        <v>4.9030000000000003E-5</v>
+        <v>8.6149999999999993E-5</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D60">
-        <v>-9.7899999999999991</v>
+        <v>-0.26</v>
       </c>
       <c r="E60">
-        <v>-3.17</v>
+        <v>-6.58</v>
       </c>
       <c r="F60">
-        <v>41.66</v>
+        <v>39.68</v>
       </c>
       <c r="H60" s="1">
-        <v>7913750</v>
+        <v>38826187</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="J60" s="1">
-        <v>11104944</v>
+        <v>27800108</v>
       </c>
       <c r="K60">
-        <v>0.79098400000000002</v>
+        <v>1.39662</v>
       </c>
       <c r="L60" s="1">
-        <v>92808.7</v>
+        <v>386491</v>
       </c>
       <c r="M60">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O60" s="3">
-        <v>0.71592592592592597</v>
+        <v>0.4138425925925926</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -3759,46 +3756,46 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1402641</v>
+        <v>76593701</v>
       </c>
       <c r="B61">
-        <v>2.9952000000000001E-4</v>
+        <v>6.6459999999999997E-5</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>14.02</v>
+        <v>0.38</v>
       </c>
       <c r="E61">
-        <v>35.9</v>
+        <v>-3.86</v>
       </c>
       <c r="F61">
-        <v>206.46</v>
+        <v>27.9</v>
       </c>
       <c r="H61" s="1">
-        <v>6777269</v>
+        <v>82177382</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="J61" s="1">
-        <v>16718085</v>
+        <v>76593701</v>
       </c>
       <c r="K61">
-        <v>4.8317899999999998</v>
+        <v>1.0729</v>
       </c>
       <c r="L61" s="1">
-        <v>20517.900000000001</v>
+        <v>7674630</v>
       </c>
       <c r="M61">
-        <v>49</v>
+        <v>1706</v>
       </c>
       <c r="N61" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O61" s="3">
-        <v>0.9184606481481481</v>
+        <v>0.70540509259259254</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -3806,49 +3803,46 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>14700750</v>
+        <v>17768075</v>
       </c>
       <c r="B62">
-        <v>2.7250000000000002E-5</v>
+        <v>9.6420000000000002E-5</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>4.37</v>
+        <v>1.7</v>
       </c>
       <c r="E62">
-        <v>-0.45</v>
+        <v>0.64</v>
       </c>
       <c r="F62">
-        <v>104.43</v>
-      </c>
-      <c r="G62">
-        <v>100000000</v>
+        <v>22.04</v>
       </c>
       <c r="H62" s="1">
-        <v>6462788</v>
+        <v>27774166</v>
       </c>
       <c r="I62" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="J62" s="1">
-        <v>15700750</v>
+        <v>17768075</v>
       </c>
       <c r="K62">
-        <v>0.43962299999999999</v>
+        <v>1.56315</v>
       </c>
       <c r="L62" s="1">
-        <v>141927</v>
+        <v>1367580</v>
       </c>
       <c r="M62">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="N62" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O62" s="3">
-        <v>0.97446759259259252</v>
+        <v>0.75282407407407403</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -3856,46 +3850,46 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>15746668</v>
+        <v>6278008</v>
       </c>
       <c r="B63">
-        <v>2.3669999999999999E-5</v>
+        <v>2.2481000000000001E-4</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D63">
-        <v>-6.04</v>
+        <v>12.24</v>
       </c>
       <c r="E63">
-        <v>-9.58</v>
+        <v>13.44</v>
       </c>
       <c r="F63">
-        <v>94.21</v>
+        <v>18.62</v>
       </c>
       <c r="H63" s="1">
-        <v>6012755</v>
+        <v>22534219</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="J63" s="1">
-        <v>22940540</v>
+        <v>6278008</v>
       </c>
       <c r="K63">
-        <v>0.38184299999999999</v>
+        <v>3.5893899999999999</v>
       </c>
       <c r="L63" s="1">
-        <v>239576</v>
+        <v>1320700</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="N63" s="2">
-        <v>43107</v>
+        <v>43105</v>
       </c>
       <c r="O63" s="3">
-        <v>0.88938657407407407</v>
+        <v>0.85606481481481478</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -3903,46 +3897,46 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>46000000</v>
+        <v>7745628</v>
       </c>
       <c r="B64">
-        <v>7.9200000000000004E-6</v>
+        <v>9.0279999999999996E-5</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>-5.28</v>
+        <v>-1.27</v>
       </c>
       <c r="E64">
-        <v>-24.97</v>
+        <v>-7.48</v>
       </c>
       <c r="F64">
-        <v>-15.58</v>
+        <v>12.74</v>
       </c>
       <c r="H64" s="1">
-        <v>5875672</v>
+        <v>11280655</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J64" s="1">
-        <v>50000000</v>
+        <v>7745628</v>
       </c>
       <c r="K64">
-        <v>0.12773200000000001</v>
+        <v>1.4563900000000001</v>
       </c>
       <c r="L64" s="1">
-        <v>74795.199999999997</v>
+        <v>822145</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>1122</v>
       </c>
       <c r="N64" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O64" s="3">
-        <v>0.67123842592592586</v>
+        <v>0.89298611111111104</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3950,46 +3944,46 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>446303</v>
+        <v>22293890</v>
       </c>
       <c r="B65">
-        <v>6.3069000000000005E-4</v>
+        <v>3.3810000000000003E-5</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D65">
-        <v>2.75</v>
+        <v>7.33</v>
       </c>
       <c r="E65">
-        <v>41.6</v>
+        <v>-4.46</v>
       </c>
       <c r="F65">
-        <v>128.75</v>
+        <v>10.57</v>
       </c>
       <c r="H65" s="1">
-        <v>4539924</v>
+        <v>12194468</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="J65" s="1">
-        <v>446303</v>
+        <v>25264095</v>
       </c>
       <c r="K65">
-        <v>10.1723</v>
+        <v>0.546987</v>
       </c>
       <c r="L65" s="1">
-        <v>2091280</v>
+        <v>25238.799999999999</v>
       </c>
       <c r="M65">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N65" s="2">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="O65" s="3">
-        <v>0.86165509259259254</v>
+        <v>0.54399305555555555</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -3997,46 +3991,49 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>221789</v>
+        <v>2827061</v>
       </c>
       <c r="B66">
-        <v>8.4228999999999999E-4</v>
+        <v>5.5170000000000002E-4</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D66">
-        <v>-1.43</v>
+        <v>-1.27</v>
       </c>
       <c r="E66">
-        <v>4.67</v>
+        <v>74.06</v>
       </c>
       <c r="F66">
-        <v>-3.87</v>
+        <v>3.75</v>
+      </c>
+      <c r="G66">
+        <v>88888888</v>
       </c>
       <c r="H66" s="1">
-        <v>3013046</v>
+        <v>25230591</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="J66" s="1">
-        <v>2181250</v>
+        <v>11715950</v>
       </c>
       <c r="K66">
-        <v>13.5852</v>
+        <v>8.9246700000000008</v>
       </c>
       <c r="L66" s="1">
-        <v>588802</v>
+        <v>1403710</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="N66" s="2">
         <v>43107</v>
       </c>
       <c r="O66" s="3">
-        <v>0.71361111111111108</v>
+        <v>0.8536689814814814</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -4044,49 +4041,46 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>3268301</v>
+        <v>17029321</v>
       </c>
       <c r="B67">
-        <v>4.4780000000000002E-5</v>
+        <v>1.2747999999999999E-4</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D67">
-        <v>5.7</v>
+        <v>0.11</v>
       </c>
       <c r="E67">
-        <v>47.23</v>
+        <v>-7.35</v>
       </c>
       <c r="F67">
-        <v>240.76</v>
-      </c>
-      <c r="G67">
-        <v>3315372</v>
+        <v>2.93</v>
       </c>
       <c r="H67" s="1">
-        <v>2360439</v>
+        <v>35191943</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="J67" s="1">
-        <v>3315297</v>
+        <v>200000000</v>
       </c>
       <c r="K67">
-        <v>0.72222200000000003</v>
+        <v>2.0665499999999999</v>
       </c>
       <c r="L67" s="1">
-        <v>96138.7</v>
+        <v>505459</v>
       </c>
       <c r="M67">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="N67" s="2">
         <v>43106</v>
       </c>
       <c r="O67" s="3">
-        <v>0.9412152777777778</v>
+        <v>0.83261574074074074</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -4094,46 +4088,46 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1849570</v>
+        <v>221789</v>
       </c>
       <c r="B68">
-        <v>7.5989999999999996E-5</v>
+        <v>8.4228999999999999E-4</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D68">
-        <v>2.99</v>
+        <v>-1.43</v>
       </c>
       <c r="E68">
-        <v>29.07</v>
+        <v>4.67</v>
       </c>
       <c r="F68">
-        <v>113.3</v>
+        <v>-3.87</v>
       </c>
       <c r="H68" s="1">
-        <v>2266777</v>
+        <v>3013046</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J68" s="1">
-        <v>1849570</v>
+        <v>2181250</v>
       </c>
       <c r="K68">
-        <v>1.22557</v>
+        <v>13.5852</v>
       </c>
       <c r="L68" s="1">
-        <v>54642.1</v>
+        <v>588802</v>
       </c>
       <c r="M68">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="N68" s="2">
         <v>43107</v>
       </c>
       <c r="O68" s="3">
-        <v>0.88633101851851848</v>
+        <v>0.71361111111111108</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -4141,46 +4135,49 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>88183483</v>
+        <v>12590610</v>
       </c>
       <c r="B69">
-        <v>1.4699999999999999E-6</v>
+        <v>8.5719999999999999E-5</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D69">
-        <v>-9.8699999999999992</v>
+        <v>0.02</v>
       </c>
       <c r="E69">
-        <v>3.84</v>
+        <v>-7.94</v>
       </c>
       <c r="F69">
-        <v>55.8</v>
+        <v>-4.13</v>
+      </c>
+      <c r="G69">
+        <v>210000000</v>
       </c>
       <c r="H69" s="1">
-        <v>2092435</v>
+        <v>17459525</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J69" s="1">
-        <v>488183483</v>
+        <v>16690610</v>
       </c>
       <c r="K69">
-        <v>2.3728200000000001E-2</v>
+        <v>1.3867100000000001</v>
       </c>
       <c r="L69" s="1">
-        <v>65005.3</v>
+        <v>85641.3</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N69" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O69" s="3">
-        <v>0.73653935185185182</v>
+        <v>0.62315972222222216</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -4188,46 +4185,46 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>40592900</v>
+        <v>44713594</v>
       </c>
       <c r="B70">
-        <v>2.12E-6</v>
+        <v>3.8940000000000003E-5</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D70">
-        <v>-2.0099999999999998</v>
+        <v>-2.04</v>
       </c>
       <c r="E70">
-        <v>6.76</v>
+        <v>14.6</v>
       </c>
       <c r="F70">
-        <v>69.680000000000007</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="H70" s="1">
-        <v>1390774</v>
+        <v>28226798</v>
       </c>
       <c r="I70" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="J70" s="1">
-        <v>45625900</v>
+        <v>70981320</v>
       </c>
       <c r="K70">
-        <v>3.42615E-2</v>
+        <v>0.63127999999999995</v>
       </c>
       <c r="L70" s="1">
-        <v>35311.699999999997</v>
+        <v>270856</v>
       </c>
       <c r="M70">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="N70" s="2">
-        <v>43106</v>
+        <v>43107</v>
       </c>
       <c r="O70" s="3">
-        <v>0.74732638888888892</v>
+        <v>0.77129629629629637</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -4235,46 +4232,49 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>547187076</v>
+        <v>3592379</v>
       </c>
       <c r="B71">
-        <v>5.2900000000000002E-6</v>
+        <v>5.3919999999999999E-4</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D71">
-        <v>-0.42</v>
+        <v>-0.94</v>
       </c>
       <c r="E71">
-        <v>-7.53</v>
+        <v>-1.34</v>
       </c>
       <c r="F71">
-        <v>66.52</v>
+        <v>-12.52</v>
+      </c>
+      <c r="G71">
+        <v>100000000</v>
       </c>
       <c r="H71" s="1">
-        <v>46939458</v>
+        <v>31401311</v>
       </c>
       <c r="I71" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="J71" s="1">
-        <v>547187076</v>
+        <v>82630002</v>
       </c>
       <c r="K71">
-        <v>8.5783200000000004E-2</v>
+        <v>8.7410899999999998</v>
       </c>
       <c r="L71" s="1">
-        <v>5488010</v>
+        <v>103001</v>
       </c>
       <c r="M71">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="N71" s="2">
-        <v>43107</v>
+        <v>43105</v>
       </c>
       <c r="O71" s="3">
-        <v>0.81070601851851853</v>
+        <v>0.54931712962962964</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -4282,46 +4282,46 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>62366926</v>
+        <v>46000000</v>
       </c>
       <c r="B72">
-        <v>7.4679999999999996E-5</v>
+        <v>7.9200000000000004E-6</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D72">
-        <v>2.88</v>
+        <v>-5.28</v>
       </c>
       <c r="E72">
-        <v>4.9400000000000004</v>
+        <v>-24.97</v>
       </c>
       <c r="F72">
-        <v>164.46</v>
+        <v>-15.58</v>
       </c>
       <c r="H72" s="1">
-        <v>75190814</v>
+        <v>5875672</v>
       </c>
       <c r="I72" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J72" s="1">
-        <v>1395076054</v>
+        <v>50000000</v>
       </c>
       <c r="K72">
-        <v>1.2056199999999999</v>
+        <v>0.12773200000000001</v>
       </c>
       <c r="L72" s="1">
-        <v>29120900</v>
+        <v>74795.199999999997</v>
       </c>
       <c r="M72">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N72" s="2">
         <v>43106</v>
       </c>
       <c r="O72" s="3">
-        <v>0.68928240740740743</v>
+        <v>0.67123842592592586</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -4703,6 +4703,9 @@
       <c r="O207" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:P72">
+    <sortCondition descending="1" ref="F2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cmc.xlsx
+++ b/cmc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="482">
   <si>
     <t>AvailableSupply</t>
   </si>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,6 +1968,9 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2065,6 +2068,9 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2165,6 +2171,9 @@
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2356,6 +2365,9 @@
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2645,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16751836</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>98959598</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>116774708</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>133248289</v>
       </c>
@@ -2839,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>102042552</v>
       </c>
@@ -2885,8 +2897,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14513149689</v>
       </c>
@@ -2936,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6175962</v>
       </c>
@@ -2986,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>325190215376</v>
       </c>
@@ -3036,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3009819</v>
       </c>
@@ -3082,8 +3097,11 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2606830000</v>
       </c>
@@ -3133,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37004027</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>112676542843</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>99014000</v>
       </c>
@@ -3276,8 +3294,11 @@
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>98692165</v>
       </c>
@@ -3324,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>91043076</v>
       </c>
@@ -3370,8 +3391,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3470483788</v>
       </c>
@@ -3417,8 +3441,11 @@
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1468089837</v>
       </c>
@@ -3464,8 +3491,11 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>100000000</v>
       </c>
@@ -3512,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>277162633</v>
       </c>
@@ -3558,8 +3588,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9665731614</v>
       </c>
@@ -3609,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>238421940</v>
       </c>
@@ -3656,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>103931565</v>
       </c>
@@ -3703,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42470475</v>
       </c>
@@ -3752,8 +3785,11 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>834262000</v>
       </c>
@@ -3800,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11000000</v>
       </c>
@@ -3846,8 +3882,11 @@
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>97981284</v>
       </c>
@@ -3894,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1000000000</v>
       </c>
@@ -3940,8 +3979,11 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10614760961</v>
       </c>
@@ -3987,8 +4029,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4249873622</v>
       </c>
@@ -4035,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>55296778</v>
       </c>
@@ -4082,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>6514169</v>
       </c>
@@ -4132,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>54507698</v>
       </c>
@@ -4179,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>483112683</v>
       </c>
@@ -4225,8 +4270,11 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>134132697</v>
       </c>
@@ -4272,8 +4320,11 @@
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>8745102</v>
       </c>
@@ -4320,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>250000000</v>
       </c>
@@ -4366,8 +4417,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54878130</v>
       </c>
@@ -4414,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>61299856</v>
       </c>
@@ -4460,8 +4514,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>360520332</v>
       </c>
@@ -4508,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>640789933</v>
       </c>
@@ -4555,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>987000000</v>
       </c>
@@ -4602,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>226091449</v>
       </c>
@@ -4649,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>452552412</v>
       </c>
@@ -4696,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>617314171</v>
       </c>
@@ -4743,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>645222</v>
       </c>
@@ -4790,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>350000000</v>
       </c>
@@ -4836,8 +4893,11 @@
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>9137582</v>
       </c>
@@ -4886,8 +4946,11 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1288862</v>
       </c>
@@ -4934,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>99788314</v>
       </c>
@@ -4981,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3834145</v>
       </c>
@@ -5028,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2196601583</v>
       </c>
@@ -5075,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2000000</v>
       </c>
@@ -5121,8 +5184,11 @@
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>24898178</v>
       </c>
@@ -5172,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>104661310</v>
       </c>
@@ -5219,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1607622325</v>
       </c>
@@ -5265,8 +5331,11 @@
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2519820151569</v>
       </c>
@@ -5313,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>50148936</v>
       </c>
@@ -5359,8 +5428,11 @@
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12702948</v>
       </c>
@@ -5407,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1104590</v>
       </c>
@@ -5454,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>900000000</v>
       </c>
@@ -5504,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>342699966</v>
       </c>
@@ -5551,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40772871</v>
       </c>
@@ -5598,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1012907733</v>
       </c>
@@ -5645,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1809800</v>
       </c>
@@ -5692,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>300000000</v>
       </c>
@@ -5741,8 +5813,11 @@
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>64355352</v>
       </c>
@@ -5789,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>756192535</v>
       </c>
@@ -5836,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>132532119</v>
       </c>
@@ -5883,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>134256304</v>
       </c>
@@ -5930,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>564130085</v>
       </c>
@@ -5980,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1445976590</v>
       </c>
@@ -6027,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6932337</v>
       </c>
@@ -6077,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>62271953</v>
       </c>
@@ -6124,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>430000000</v>
       </c>
@@ -6174,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>543348500</v>
       </c>
@@ -6221,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1008885706</v>
       </c>
@@ -6268,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>600000000</v>
       </c>
@@ -6315,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>433150121</v>
       </c>
@@ -6361,8 +6436,11 @@
       <c r="P94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>184450000</v>
       </c>
@@ -6412,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>39074645</v>
       </c>
@@ -6459,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13085542</v>
       </c>
@@ -6506,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>68000000</v>
       </c>
@@ -6553,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>489033009</v>
       </c>
@@ -6600,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>359600000</v>
       </c>
@@ -6647,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1029190905</v>
       </c>
@@ -6694,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>150000000</v>
       </c>
@@ -6741,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>144590975</v>
       </c>
@@ -6788,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>600000000</v>
       </c>
@@ -6835,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45248033</v>
       </c>
@@ -6882,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>60248315</v>
       </c>
@@ -6932,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>32105578</v>
       </c>
@@ -6979,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>428481269</v>
       </c>
@@ -7026,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>216270518</v>
       </c>
@@ -7073,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>59805880</v>
       </c>
@@ -7119,8 +7197,11 @@
       <c r="P110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41171367</v>
       </c>
@@ -7167,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>89708333</v>
       </c>
@@ -7260,6 +7341,9 @@
       <c r="P113">
         <v>0</v>
       </c>
+      <c r="Q113" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -7310,6 +7394,9 @@
       <c r="P114">
         <v>0</v>
       </c>
+      <c r="Q114" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -9518,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>13000000</v>
       </c>
@@ -9565,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>643012000</v>
       </c>
@@ -9612,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>15953050</v>
       </c>
@@ -9662,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44713594</v>
       </c>
@@ -9709,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>38538648</v>
       </c>
@@ -9756,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>37109887</v>
       </c>
@@ -9803,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>6883919</v>
       </c>
@@ -9853,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>191381257</v>
       </c>
@@ -9900,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>912102</v>
       </c>
@@ -9947,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>377576999</v>
       </c>
@@ -9994,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>27803782</v>
       </c>
@@ -10041,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>17773225</v>
       </c>
@@ -10088,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>3592379</v>
       </c>
@@ -10138,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2799476</v>
       </c>
@@ -10185,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>17029321</v>
       </c>
@@ -10231,8 +10318,11 @@
       <c r="P175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25000000</v>
       </c>
@@ -11624,6 +11714,9 @@
       <c r="P204">
         <v>0</v>
       </c>
+      <c r="Q204" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
@@ -12480,34 +12573,40 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
-        <v>1.906E-5</v>
+        <v>1.9700000000000002E-6</v>
       </c>
       <c r="C222" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="D222">
-        <v>-0.79</v>
+        <v>0.34</v>
       </c>
       <c r="E222">
-        <v>16.72</v>
+        <v>-1.6</v>
+      </c>
+      <c r="F222">
+        <v>30.86</v>
+      </c>
+      <c r="G222" s="1">
+        <v>2147483647</v>
       </c>
       <c r="I222" t="s">
-        <v>121</v>
+        <v>419</v>
       </c>
       <c r="J222" s="1">
-        <v>299798552</v>
+        <v>2147483647</v>
       </c>
       <c r="K222">
-        <v>0.30521799999999999</v>
+        <v>3.1497400000000002E-2</v>
       </c>
       <c r="L222" s="1">
-        <v>5429410</v>
+        <v>131733</v>
       </c>
       <c r="M222">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N222" s="2">
-        <v>43108</v>
+        <v>43107</v>
       </c>
       <c r="O222" t="s">
         <v>159</v>
@@ -12521,81 +12620,75 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
-        <v>4.7859999999999999E-5</v>
+        <v>1.906E-5</v>
       </c>
       <c r="C223" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="D223">
-        <v>-2.4500000000000002</v>
+        <v>-0.79</v>
       </c>
       <c r="E223">
-        <v>11.34</v>
-      </c>
-      <c r="F223">
-        <v>125.12</v>
+        <v>16.72</v>
       </c>
       <c r="I223" t="s">
-        <v>391</v>
+        <v>121</v>
       </c>
       <c r="J223" s="1">
-        <v>600000000</v>
+        <v>299798552</v>
       </c>
       <c r="K223">
-        <v>0.76642500000000002</v>
+        <v>0.30521799999999999</v>
       </c>
       <c r="L223" s="1">
-        <v>11216300</v>
+        <v>5429410</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N223" s="2">
-        <v>43107</v>
+        <v>43108</v>
       </c>
       <c r="O223" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="P223">
         <v>0</v>
       </c>
       <c r="Q223" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
-        <v>1.9700000000000002E-6</v>
+        <v>2.2569999999999999E-5</v>
       </c>
       <c r="C224" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="D224">
-        <v>0.34</v>
+        <v>-2.75</v>
       </c>
       <c r="E224">
-        <v>-1.6</v>
+        <v>-16.329999999999998</v>
       </c>
       <c r="F224">
-        <v>30.86</v>
-      </c>
-      <c r="G224" s="1">
-        <v>2147483647</v>
+        <v>357.92</v>
       </c>
       <c r="I224" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="J224" s="1">
-        <v>2147483647</v>
+        <v>438686537</v>
       </c>
       <c r="K224">
-        <v>3.1497400000000002E-2</v>
+        <v>0.36143700000000001</v>
       </c>
       <c r="L224" s="1">
-        <v>131733</v>
+        <v>2290220</v>
       </c>
       <c r="M224">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="N224" s="2">
         <v>43107</v>
@@ -12656,75 +12749,72 @@
     </row>
     <row r="226" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
-        <v>2.2569999999999999E-5</v>
+        <v>4.7859999999999999E-5</v>
       </c>
       <c r="C226" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="D226">
-        <v>-2.75</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="E226">
-        <v>-16.329999999999998</v>
+        <v>11.34</v>
       </c>
       <c r="F226">
-        <v>357.92</v>
+        <v>125.12</v>
       </c>
       <c r="I226" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="J226" s="1">
-        <v>438686537</v>
+        <v>600000000</v>
       </c>
       <c r="K226">
-        <v>0.36143700000000001</v>
+        <v>0.76642500000000002</v>
       </c>
       <c r="L226" s="1">
-        <v>2290220</v>
+        <v>11216300</v>
       </c>
       <c r="M226">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N226" s="2">
         <v>43107</v>
       </c>
       <c r="O226" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P226">
         <v>0</v>
       </c>
       <c r="Q226" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="227" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
-        <v>7.2390000000000003E-5</v>
+        <v>4.7999999999999996E-7</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D227">
-        <v>-1.0900000000000001</v>
+        <v>-1.21</v>
       </c>
       <c r="E227">
-        <v>-16.350000000000001</v>
+        <v>59.96</v>
       </c>
       <c r="F227">
-        <v>73.010000000000005</v>
+        <v>211.93</v>
       </c>
       <c r="I227" t="s">
-        <v>238</v>
-      </c>
-      <c r="J227" s="1">
-        <v>100000000</v>
+        <v>242</v>
       </c>
       <c r="K227">
-        <v>1.1592899999999999</v>
+        <v>7.6887199999999996E-3</v>
       </c>
       <c r="L227" s="1">
-        <v>4078640</v>
+        <v>18684</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -12739,36 +12829,36 @@
         <v>0</v>
       </c>
       <c r="Q227" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
-        <v>5.5000000000000003E-7</v>
+        <v>2.8E-5</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D228">
-        <v>-0.04</v>
+        <v>13.2</v>
       </c>
       <c r="E228">
-        <v>81.64</v>
+        <v>116.74</v>
       </c>
       <c r="F228">
-        <v>170.96</v>
+        <v>192.47</v>
+      </c>
+      <c r="G228" s="1">
+        <v>2000000</v>
       </c>
       <c r="I228" t="s">
-        <v>240</v>
-      </c>
-      <c r="J228" s="1">
-        <v>49312080</v>
+        <v>244</v>
       </c>
       <c r="K228">
-        <v>8.7384300000000002E-3</v>
+        <v>0.44850899999999999</v>
       </c>
       <c r="L228" s="1">
-        <v>38394.6</v>
+        <v>22652.7</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -12783,33 +12873,36 @@
         <v>0</v>
       </c>
       <c r="Q228" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
-        <v>4.7999999999999996E-7</v>
+        <v>5.5000000000000003E-7</v>
       </c>
       <c r="C229" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D229">
-        <v>-1.21</v>
+        <v>-0.04</v>
       </c>
       <c r="E229">
-        <v>59.96</v>
+        <v>81.64</v>
       </c>
       <c r="F229">
-        <v>211.93</v>
+        <v>170.96</v>
       </c>
       <c r="I229" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="J229" s="1">
+        <v>49312080</v>
       </c>
       <c r="K229">
-        <v>7.6887199999999996E-3</v>
+        <v>8.7384300000000002E-3</v>
       </c>
       <c r="L229" s="1">
-        <v>18684</v>
+        <v>38394.6</v>
       </c>
       <c r="M229">
         <v>0</v>
@@ -12824,36 +12917,36 @@
         <v>0</v>
       </c>
       <c r="Q229" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
-        <v>2.8E-5</v>
+        <v>7.2390000000000003E-5</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D230">
-        <v>13.2</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="E230">
-        <v>116.74</v>
+        <v>-16.350000000000001</v>
       </c>
       <c r="F230">
-        <v>192.47</v>
-      </c>
-      <c r="G230" s="1">
-        <v>2000000</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="I230" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="J230" s="1">
+        <v>100000000</v>
       </c>
       <c r="K230">
-        <v>0.44850899999999999</v>
+        <v>1.1592899999999999</v>
       </c>
       <c r="L230" s="1">
-        <v>22652.7</v>
+        <v>4078640</v>
       </c>
       <c r="M230">
         <v>0</v>
@@ -12916,8 +13009,13 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P71">
-    <sortCondition descending="1" ref="F2"/>
+  <autoFilter ref="A1:Q231">
+    <sortState ref="A2:Q231">
+      <sortCondition descending="1" ref="H1:H231"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:Q231">
+    <sortCondition descending="1" ref="M2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cmc.xlsx
+++ b/cmc.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018.01.06" sheetId="1" r:id="rId1"/>
+    <sheet name="2018.01.08" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018.01.06'!$A$1:$R$230</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="480">
   <si>
     <t>AvailableSupply</t>
   </si>
@@ -1131,12 +1132,6 @@
   </si>
   <si>
     <t>STORJ</t>
-  </si>
-  <si>
-    <t>asiacoin</t>
-  </si>
-  <si>
-    <t>AC</t>
   </si>
   <si>
     <t>revain</t>
@@ -1481,7 +1476,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000000000_);_(* \(#,##0.000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000000000_);_(* \(#,##0.000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1524,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1840,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q231"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1853,7 @@
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1866,7 +1861,7 @@
     <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1892,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1913,13 +1908,16 @@
         <v>156</v>
       </c>
       <c r="P1" t="s">
-        <v>477</v>
+        <v>162</v>
       </c>
       <c r="Q1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="R1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16789075</v>
       </c>
@@ -1950,7 +1948,7 @@
       <c r="J2" s="1">
         <v>16789075</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>16036.6</v>
       </c>
       <c r="L2" s="1">
@@ -1968,11 +1966,14 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>96843149</v>
       </c>
@@ -2000,7 +2001,7 @@
       <c r="J3" s="1">
         <v>96843149</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1221.8399999999999</v>
       </c>
       <c r="L3" s="1">
@@ -2016,10 +2017,13 @@
         <v>159</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38739144847</v>
       </c>
@@ -2050,7 +2054,7 @@
       <c r="J4" s="1">
         <v>99993093880</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>2.6239300000000001</v>
       </c>
       <c r="L4" s="1">
@@ -2066,13 +2070,16 @@
         <v>162</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16899750</v>
       </c>
@@ -2103,7 +2110,7 @@
       <c r="J5" s="1">
         <v>16899750</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>2540.66</v>
       </c>
       <c r="L5" s="1">
@@ -2121,8 +2128,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25927070538</v>
       </c>
@@ -2153,7 +2163,7 @@
       <c r="J6" s="1">
         <v>31112483745</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>0.96304299999999998</v>
       </c>
       <c r="L6" s="1">
@@ -2169,13 +2179,16 @@
         <v>162</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8999999999</v>
       </c>
@@ -2203,7 +2216,7 @@
       <c r="J7" s="1">
         <v>8999999999</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1.7310099999999999</v>
       </c>
       <c r="L7" s="1">
@@ -2221,8 +2234,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>54663233</v>
       </c>
@@ -2253,7 +2269,7 @@
       <c r="J8" s="1">
         <v>54663233</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>267.12</v>
       </c>
       <c r="L8" s="1">
@@ -2269,10 +2285,13 @@
         <v>159</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>17877873958</v>
       </c>
@@ -2300,7 +2319,7 @@
       <c r="J9" s="1">
         <v>103570548975</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>0.67893599999999998</v>
       </c>
       <c r="L9" s="1">
@@ -2316,10 +2335,13 @@
         <v>162</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>65748192475</v>
       </c>
@@ -2347,7 +2369,7 @@
       <c r="J10" s="1">
         <v>100000000000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.170348</v>
       </c>
       <c r="L10" s="1">
@@ -2363,13 +2385,16 @@
         <v>162</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7805135</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>7.3138999999999996E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11">
         <v>0.06</v>
@@ -2395,12 +2420,12 @@
         <v>9108904224</v>
       </c>
       <c r="I11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J11" s="1">
         <v>7805135</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>1167.04</v>
       </c>
       <c r="L11" s="1">
@@ -2416,10 +2441,13 @@
         <v>159</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>65000000</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>6.4188600000000002E-3</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D12">
         <v>2.11</v>
@@ -2442,12 +2470,12 @@
         <v>6657430000</v>
       </c>
       <c r="I12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J12" s="1">
         <v>100000000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>102.422</v>
       </c>
       <c r="L12" s="1">
@@ -2463,10 +2491,13 @@
         <v>159</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15576511</v>
       </c>
@@ -2494,7 +2525,7 @@
       <c r="J13" s="1">
         <v>15576511</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>394.70299999999997</v>
       </c>
       <c r="L13" s="1">
@@ -2510,10 +2541,13 @@
         <v>159</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>589021771</v>
       </c>
@@ -2521,7 +2555,7 @@
         <v>5.9882999999999996E-4</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D14">
         <v>-2.5499999999999998</v>
@@ -2539,12 +2573,12 @@
         <v>5619656448</v>
       </c>
       <c r="I14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J14" s="1">
         <v>900000000</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>9.5406600000000008</v>
       </c>
       <c r="L14" s="1">
@@ -2560,10 +2594,13 @@
         <v>175</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>73791784</v>
       </c>
@@ -2591,7 +2628,7 @@
       <c r="J15" s="1">
         <v>100291784</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>58.769399999999997</v>
       </c>
       <c r="L15" s="1">
@@ -2607,10 +2644,13 @@
         <v>159</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>378545005</v>
       </c>
@@ -2618,7 +2658,7 @@
         <v>6.9207000000000003E-4</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D16">
         <v>-0.26</v>
@@ -2633,12 +2673,12 @@
         <v>4173875080</v>
       </c>
       <c r="I16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J16" s="1">
         <v>400230000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>11.0261</v>
       </c>
       <c r="L16" s="1">
@@ -2654,10 +2694,13 @@
         <v>162</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16751836</v>
       </c>
@@ -2688,7 +2731,7 @@
       <c r="J17" s="1">
         <v>16851836</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>240.375</v>
       </c>
       <c r="L17" s="1">
@@ -2704,10 +2747,13 @@
         <v>159</v>
       </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>98959598</v>
       </c>
@@ -2715,7 +2761,7 @@
         <v>2.3404599999999999E-3</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D18">
         <v>-0.36</v>
@@ -2730,12 +2776,12 @@
         <v>3690045074</v>
       </c>
       <c r="I18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J18" s="1">
         <v>98959598</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>37.288400000000003</v>
       </c>
       <c r="L18" s="1">
@@ -2751,10 +2797,13 @@
         <v>159</v>
       </c>
       <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>116774708</v>
       </c>
@@ -2762,7 +2811,7 @@
         <v>1.9768699999999999E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19">
         <v>0.22</v>
@@ -2777,12 +2826,12 @@
         <v>3677889493</v>
       </c>
       <c r="I19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J19" s="1">
         <v>116774708</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>31.4956</v>
       </c>
       <c r="L19" s="1">
@@ -2798,10 +2847,13 @@
         <v>162</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>133248289</v>
       </c>
@@ -2832,7 +2884,7 @@
       <c r="J20" s="1">
         <v>133248289</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>26.681699999999999</v>
       </c>
       <c r="L20" s="1">
@@ -2850,8 +2902,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>102042552</v>
       </c>
@@ -2879,7 +2934,7 @@
       <c r="J21" s="1">
         <v>140245398</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>26.4696</v>
       </c>
       <c r="L21" s="1">
@@ -2895,13 +2950,16 @@
         <v>159</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14513149689</v>
       </c>
@@ -2932,7 +2990,7 @@
       <c r="J22" s="1">
         <v>14513149689</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>0.17618300000000001</v>
       </c>
       <c r="L22" s="1">
@@ -2948,10 +3006,13 @@
         <v>159</v>
       </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6175962</v>
       </c>
@@ -2982,7 +3043,7 @@
       <c r="J23" s="1">
         <v>9454304</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>378.03500000000003</v>
       </c>
       <c r="L23" s="1">
@@ -2998,10 +3059,13 @@
         <v>162</v>
       </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>325190215376</v>
       </c>
@@ -3032,7 +3096,7 @@
       <c r="J24" s="1">
         <v>1841395638392</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>6.8374899999999999E-3</v>
       </c>
       <c r="L24" s="1">
@@ -3050,8 +3114,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3009819</v>
       </c>
@@ -3079,7 +3146,7 @@
       <c r="J25" s="1">
         <v>3009819</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>733.16800000000001</v>
       </c>
       <c r="L25" s="1">
@@ -3095,13 +3162,16 @@
         <v>159</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2606830000</v>
       </c>
@@ -3109,7 +3179,7 @@
         <v>4.8789999999999999E-5</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D26">
         <v>-1.28</v>
@@ -3127,12 +3197,12 @@
         <v>2029521428</v>
       </c>
       <c r="I26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J26" s="1">
         <v>2606830000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0.77854000000000001</v>
       </c>
       <c r="L26" s="1">
@@ -3148,10 +3218,13 @@
         <v>162</v>
       </c>
       <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37004027</v>
       </c>
@@ -3159,7 +3232,7 @@
         <v>3.3648699999999998E-3</v>
       </c>
       <c r="C27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D27">
         <v>0.48</v>
@@ -3177,12 +3250,12 @@
         <v>1986794309</v>
       </c>
       <c r="I27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J27" s="1">
         <v>53252246</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>53.691299999999998</v>
       </c>
       <c r="L27" s="1">
@@ -3198,10 +3271,13 @@
         <v>175</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>112676542843</v>
       </c>
@@ -3229,7 +3305,7 @@
       <c r="J28" s="1">
         <v>112676542843</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>1.72718E-2</v>
       </c>
       <c r="L28" s="1">
@@ -3247,8 +3323,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>99014000</v>
       </c>
@@ -3276,7 +3355,7 @@
       <c r="J29" s="1">
         <v>199013968</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>18.557700000000001</v>
       </c>
       <c r="L29" s="1">
@@ -3292,13 +3371,16 @@
         <v>162</v>
       </c>
       <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>98692165</v>
       </c>
@@ -3326,7 +3408,7 @@
       <c r="J30" s="1">
         <v>98692165</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>18.0975</v>
       </c>
       <c r="L30" s="1">
@@ -3342,10 +3424,13 @@
         <v>159</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>91043076</v>
       </c>
@@ -3373,7 +3458,7 @@
       <c r="J31" s="1">
         <v>181043076</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>19.106200000000001</v>
       </c>
       <c r="L31" s="1">
@@ -3391,11 +3476,14 @@
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3470483788</v>
       </c>
@@ -3423,7 +3511,7 @@
       <c r="J32" s="1">
         <v>6804870174</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>0.49708400000000003</v>
       </c>
       <c r="L32" s="1">
@@ -3439,13 +3527,16 @@
         <v>175</v>
       </c>
       <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1468089837</v>
       </c>
@@ -3473,7 +3564,7 @@
       <c r="J33" s="1">
         <v>1499999377</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>1.00413</v>
       </c>
       <c r="L33" s="1">
@@ -3491,11 +3582,14 @@
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>100000000</v>
       </c>
@@ -3503,7 +3597,7 @@
         <v>7.9487000000000004E-4</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D34">
         <v>1.46</v>
@@ -3518,12 +3612,12 @@
         <v>1268330000</v>
       </c>
       <c r="I34" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J34" s="1">
         <v>100000000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>12.683299999999999</v>
       </c>
       <c r="L34" s="1">
@@ -3539,10 +3633,13 @@
         <v>162</v>
       </c>
       <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>277162633</v>
       </c>
@@ -3570,7 +3667,7 @@
       <c r="J35" s="1">
         <v>867162633</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>4.34694</v>
       </c>
       <c r="L35" s="1">
@@ -3586,13 +3683,16 @@
         <v>175</v>
       </c>
       <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9665731614</v>
       </c>
@@ -3623,7 +3723,7 @@
       <c r="J36" s="1">
         <v>9665731614</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>0.120765</v>
       </c>
       <c r="L36" s="1">
@@ -3641,8 +3741,11 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>238421940</v>
       </c>
@@ -3650,7 +3753,7 @@
         <v>2.8455E-4</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D37">
         <v>0.21</v>
@@ -3665,12 +3768,12 @@
         <v>1082540513</v>
       </c>
       <c r="I37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J37" s="1">
         <v>433494437</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>4.5404400000000003</v>
       </c>
       <c r="L37" s="1">
@@ -3688,8 +3791,11 @@
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>103931565</v>
       </c>
@@ -3717,7 +3823,7 @@
       <c r="J38" s="1">
         <v>103931565</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>10.347</v>
       </c>
       <c r="L38" s="1">
@@ -3733,10 +3839,13 @@
         <v>159</v>
       </c>
       <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42470475</v>
       </c>
@@ -3767,7 +3876,7 @@
       <c r="J39" s="1">
         <v>42470475</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>24.382899999999999</v>
       </c>
       <c r="L39" s="1">
@@ -3783,13 +3892,16 @@
         <v>159</v>
       </c>
       <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>834262000</v>
       </c>
@@ -3797,7 +3909,7 @@
         <v>6.9620000000000001E-5</v>
       </c>
       <c r="C40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D40">
         <v>1.2</v>
@@ -3812,12 +3924,12 @@
         <v>926764971</v>
       </c>
       <c r="I40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J40" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>1.1108800000000001</v>
       </c>
       <c r="L40" s="1">
@@ -3835,8 +3947,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11000000</v>
       </c>
@@ -3864,7 +3979,7 @@
       <c r="J41" s="1">
         <v>11000000</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>77.559700000000007</v>
       </c>
       <c r="L41" s="1">
@@ -3882,11 +3997,14 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>97981284</v>
       </c>
@@ -3914,7 +4032,7 @@
       <c r="J42" s="1">
         <v>129231284</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>7.8470000000000004</v>
       </c>
       <c r="L42" s="1">
@@ -3930,10 +4048,13 @@
         <v>159</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1000000000</v>
       </c>
@@ -3961,7 +4082,7 @@
       <c r="J43" s="1">
         <v>1500000000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>0.75418300000000005</v>
       </c>
       <c r="L43" s="1">
@@ -3977,13 +4098,16 @@
         <v>159</v>
       </c>
       <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10614760961</v>
       </c>
@@ -4011,7 +4135,7 @@
       <c r="J44" s="1">
         <v>100000000000</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>7.0618799999999995E-2</v>
       </c>
       <c r="L44" s="1">
@@ -4029,11 +4153,14 @@
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4249873622</v>
       </c>
@@ -4061,7 +4188,7 @@
       <c r="J45" s="1">
         <v>10999873621</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>0.172121</v>
       </c>
       <c r="L45" s="1">
@@ -4077,10 +4204,13 @@
         <v>162</v>
       </c>
       <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>55296778</v>
       </c>
@@ -4088,7 +4218,7 @@
         <v>8.1514000000000001E-4</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D46">
         <v>1.36</v>
@@ -4103,12 +4233,12 @@
         <v>719228596</v>
       </c>
       <c r="I46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J46" s="1">
         <v>55296778</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>13.0067</v>
       </c>
       <c r="L46" s="1">
@@ -4126,8 +4256,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>6514169</v>
       </c>
@@ -4135,7 +4268,7 @@
         <v>6.7968100000000004E-3</v>
       </c>
       <c r="C47" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D47">
         <v>0.34</v>
@@ -4153,12 +4286,12 @@
         <v>706481155</v>
       </c>
       <c r="I47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J47" s="1">
         <v>6934169</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>108.453</v>
       </c>
       <c r="L47" s="1">
@@ -4176,8 +4309,11 @@
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>54507698</v>
       </c>
@@ -4185,7 +4321,7 @@
         <v>8.0522000000000005E-4</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D48">
         <v>0.56999999999999995</v>
@@ -4200,12 +4336,12 @@
         <v>700336707</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J48" s="1">
         <v>120000000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>12.8484</v>
       </c>
       <c r="L48" s="1">
@@ -4221,10 +4357,13 @@
         <v>162</v>
       </c>
       <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>483112683</v>
       </c>
@@ -4252,7 +4391,7 @@
       <c r="J49" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>1.4404999999999999</v>
       </c>
       <c r="L49" s="1">
@@ -4268,13 +4407,16 @@
         <v>162</v>
       </c>
       <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>134132697</v>
       </c>
@@ -4302,7 +4444,7 @@
       <c r="J50" s="1">
         <v>215625349</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>5.0609599999999997</v>
       </c>
       <c r="L50" s="1">
@@ -4318,13 +4460,16 @@
         <v>159</v>
       </c>
       <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>8745102</v>
       </c>
@@ -4332,7 +4477,7 @@
         <v>4.7880700000000002E-3</v>
       </c>
       <c r="C51" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D51">
         <v>3.52</v>
@@ -4347,12 +4492,12 @@
         <v>668130165</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J51" s="1">
         <v>8745102</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>76.400499999999994</v>
       </c>
       <c r="L51" s="1">
@@ -4370,8 +4515,11 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>250000000</v>
       </c>
@@ -4399,7 +4547,7 @@
       <c r="J52" s="1">
         <v>260000000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>2.6591999999999998</v>
       </c>
       <c r="L52" s="1">
@@ -4415,13 +4563,16 @@
         <v>162</v>
       </c>
       <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54878130</v>
       </c>
@@ -4429,7 +4580,7 @@
         <v>7.4514999999999998E-4</v>
       </c>
       <c r="C53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D53">
         <v>2.12</v>
@@ -4444,12 +4595,12 @@
         <v>652495482</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J53" s="1">
         <v>54878130</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>11.889900000000001</v>
       </c>
       <c r="L53" s="1">
@@ -4467,8 +4618,11 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>61299856</v>
       </c>
@@ -4496,7 +4650,7 @@
       <c r="J54" s="1">
         <v>465934587</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>9.9772599999999994</v>
       </c>
       <c r="L54" s="1">
@@ -4512,13 +4666,16 @@
         <v>175</v>
       </c>
       <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>360520332</v>
       </c>
@@ -4546,7 +4703,7 @@
       <c r="J55" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>1.6916800000000001</v>
       </c>
       <c r="L55" s="1">
@@ -4562,10 +4719,13 @@
         <v>159</v>
       </c>
       <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>640789933</v>
       </c>
@@ -4573,7 +4733,7 @@
         <v>5.9290000000000003E-5</v>
       </c>
       <c r="C56" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D56">
         <v>0.11</v>
@@ -4588,12 +4748,12 @@
         <v>606214831</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J56" s="1">
         <v>999999999</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>0.94604299999999997</v>
       </c>
       <c r="L56" s="1">
@@ -4609,10 +4769,13 @@
         <v>175</v>
       </c>
       <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>987000000</v>
       </c>
@@ -4640,7 +4803,7 @@
       <c r="J57" s="1">
         <v>1407000000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>0.56302700000000006</v>
       </c>
       <c r="L57" s="1">
@@ -4658,8 +4821,11 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>226091449</v>
       </c>
@@ -4667,7 +4833,7 @@
         <v>1.5402999999999999E-4</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D58">
         <v>7.0000000000000007E-2</v>
@@ -4682,12 +4848,12 @@
         <v>555676258</v>
       </c>
       <c r="I58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J58" s="1">
         <v>352000000</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>2.4577499999999999</v>
       </c>
       <c r="L58" s="1">
@@ -4703,10 +4869,13 @@
         <v>175</v>
       </c>
       <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>452552412</v>
       </c>
@@ -4714,7 +4883,7 @@
         <v>7.0510000000000001E-5</v>
       </c>
       <c r="C59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D59">
         <v>1.45</v>
@@ -4729,12 +4898,12 @@
         <v>509171244</v>
       </c>
       <c r="I59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J59" s="1">
         <v>452552412</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>1.1251100000000001</v>
       </c>
       <c r="L59" s="1">
@@ -4752,8 +4921,11 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>617314171</v>
       </c>
@@ -4761,7 +4933,7 @@
         <v>5.0049999999999997E-5</v>
       </c>
       <c r="C60" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D60">
         <v>0.59</v>
@@ -4776,12 +4948,12 @@
         <v>493024753</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J60" s="1">
         <v>976442388</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>0.79866099999999995</v>
       </c>
       <c r="L60" s="1">
@@ -4797,10 +4969,13 @@
         <v>175</v>
       </c>
       <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>645222</v>
       </c>
@@ -4828,7 +5003,7 @@
       <c r="J61" s="1">
         <v>1000000</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>762.35799999999995</v>
       </c>
       <c r="L61" s="1">
@@ -4846,8 +5021,11 @@
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>350000000</v>
       </c>
@@ -4875,7 +5053,7 @@
       <c r="J62" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>1.35866</v>
       </c>
       <c r="L62" s="1">
@@ -4891,13 +5069,16 @@
         <v>162</v>
       </c>
       <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>9137582</v>
       </c>
@@ -4928,7 +5109,7 @@
       <c r="J63" s="1">
         <v>13802656</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="1">
         <v>51.552500000000002</v>
       </c>
       <c r="L63" s="1">
@@ -4944,13 +5125,16 @@
         <v>175</v>
       </c>
       <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1288862</v>
       </c>
@@ -4978,7 +5162,7 @@
       <c r="J64" s="1">
         <v>1288862</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>358.83699999999999</v>
       </c>
       <c r="L64" s="1">
@@ -4996,8 +5180,11 @@
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>99788314</v>
       </c>
@@ -5025,7 +5212,7 @@
       <c r="J65" s="1">
         <v>99788314</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>4.6290899999999997</v>
       </c>
       <c r="L65" s="1">
@@ -5041,10 +5228,13 @@
         <v>162</v>
       </c>
       <c r="P65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3834145</v>
       </c>
@@ -5052,7 +5242,7 @@
         <v>6.9687799999999999E-3</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D66">
         <v>0.59</v>
@@ -5067,12 +5257,12 @@
         <v>426345379</v>
       </c>
       <c r="I66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J66" s="1">
         <v>3834145</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>111.197</v>
       </c>
       <c r="L66" s="1">
@@ -5088,10 +5278,13 @@
         <v>159</v>
       </c>
       <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2196601583</v>
       </c>
@@ -5099,7 +5292,7 @@
         <v>1.202E-5</v>
       </c>
       <c r="C67" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D67">
         <v>-0.16</v>
@@ -5114,12 +5307,12 @@
         <v>421332346</v>
       </c>
       <c r="I67" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J67" s="1">
         <v>3141592653</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>0.19181100000000001</v>
       </c>
       <c r="L67" s="1">
@@ -5135,10 +5328,13 @@
         <v>175</v>
       </c>
       <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2000000</v>
       </c>
@@ -5166,7 +5362,7 @@
       <c r="J68" s="1">
         <v>2000000</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>206.59</v>
       </c>
       <c r="L68" s="1">
@@ -5182,13 +5378,16 @@
         <v>162</v>
       </c>
       <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>24898178</v>
       </c>
@@ -5219,7 +5418,7 @@
       <c r="J69" s="1">
         <v>70000000</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <v>16.5427</v>
       </c>
       <c r="L69" s="1">
@@ -5235,10 +5434,13 @@
         <v>175</v>
       </c>
       <c r="P69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>104661310</v>
       </c>
@@ -5266,7 +5468,7 @@
       <c r="J70" s="1">
         <v>205218256</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>3.9003800000000002</v>
       </c>
       <c r="L70" s="1">
@@ -5284,8 +5486,11 @@
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1607622325</v>
       </c>
@@ -5313,7 +5518,7 @@
       <c r="J71" s="1">
         <v>5541877892</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>0.25035099999999999</v>
       </c>
       <c r="L71" s="1">
@@ -5329,13 +5534,16 @@
         <v>162</v>
       </c>
       <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2519820151569</v>
       </c>
@@ -5363,7 +5571,7 @@
       <c r="J72" s="1">
         <v>3425333601925</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>1.5928700000000001E-4</v>
       </c>
       <c r="L72" s="1">
@@ -5381,8 +5589,11 @@
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>50148936</v>
       </c>
@@ -5410,7 +5621,7 @@
       <c r="J73" s="1">
         <v>100000000</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>7.8006000000000002</v>
       </c>
       <c r="L73" s="1">
@@ -5426,13 +5637,16 @@
         <v>175</v>
       </c>
       <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>12702948</v>
       </c>
@@ -5440,7 +5654,7 @@
         <v>1.9202799999999999E-3</v>
       </c>
       <c r="C74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D74">
         <v>0.82</v>
@@ -5455,12 +5669,12 @@
         <v>389229750</v>
       </c>
       <c r="I74" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J74" s="1">
         <v>13443712</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>30.640899999999998</v>
       </c>
       <c r="L74" s="1">
@@ -5476,10 +5690,13 @@
         <v>159</v>
       </c>
       <c r="P74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1104590</v>
       </c>
@@ -5487,7 +5704,7 @@
         <v>2.2018900000000001E-2</v>
       </c>
       <c r="C75" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D75">
         <v>1.47</v>
@@ -5502,12 +5719,12 @@
         <v>388089964</v>
       </c>
       <c r="I75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J75" s="1">
         <v>10000000</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>351.34300000000002</v>
       </c>
       <c r="L75" s="1">
@@ -5525,8 +5742,11 @@
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>900000000</v>
       </c>
@@ -5557,7 +5777,7 @@
       <c r="J76" s="1">
         <v>10000000000</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>0.43001600000000001</v>
       </c>
       <c r="L76" s="1">
@@ -5575,8 +5795,11 @@
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>342699966</v>
       </c>
@@ -5604,7 +5827,7 @@
       <c r="J77" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>1.11429</v>
       </c>
       <c r="L77" s="1">
@@ -5622,8 +5845,11 @@
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40772871</v>
       </c>
@@ -5651,7 +5877,7 @@
       <c r="J78" s="1">
         <v>79384422</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>9.0247499999999992</v>
       </c>
       <c r="L78" s="1">
@@ -5667,10 +5893,13 @@
         <v>162</v>
       </c>
       <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1012907733</v>
       </c>
@@ -5678,7 +5907,7 @@
         <v>2.2719999999999999E-5</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D79">
         <v>-1.46</v>
@@ -5693,12 +5922,12 @@
         <v>367179053</v>
       </c>
       <c r="I79" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J79" s="1">
         <v>1299999942</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="1">
         <v>0.36249999999999999</v>
       </c>
       <c r="L79" s="1">
@@ -5714,10 +5943,13 @@
         <v>175</v>
       </c>
       <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1809800</v>
       </c>
@@ -5745,7 +5977,7 @@
       <c r="J80" s="1">
         <v>1809800</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="1">
         <v>191.61699999999999</v>
       </c>
       <c r="L80" s="1">
@@ -5763,8 +5995,11 @@
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>300000000</v>
       </c>
@@ -5795,7 +6030,7 @@
       <c r="J81" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="1">
         <v>1.13198</v>
       </c>
       <c r="L81" s="1">
@@ -5813,11 +6048,14 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>64355352</v>
       </c>
@@ -5845,7 +6083,7 @@
       <c r="J82" s="1">
         <v>64355352</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>5.1128600000000004</v>
       </c>
       <c r="L82" s="1">
@@ -5863,8 +6101,11 @@
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>756192535</v>
       </c>
@@ -5872,7 +6113,7 @@
         <v>2.6780000000000001E-5</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D83">
         <v>-1.1299999999999999</v>
@@ -5887,12 +6128,12 @@
         <v>323111996</v>
       </c>
       <c r="I83" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J83" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="1">
         <v>0.427288</v>
       </c>
       <c r="L83" s="1">
@@ -5908,10 +6149,13 @@
         <v>159</v>
       </c>
       <c r="P83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>132532119</v>
       </c>
@@ -5939,7 +6183,7 @@
       <c r="J84" s="1">
         <v>424999998</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="1">
         <v>2.3727200000000002</v>
       </c>
       <c r="L84" s="1">
@@ -5955,10 +6199,13 @@
         <v>162</v>
       </c>
       <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>134256304</v>
       </c>
@@ -5966,7 +6213,7 @@
         <v>1.3350999999999999E-4</v>
       </c>
       <c r="C85" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D85">
         <v>1.74</v>
@@ -5981,12 +6228,12 @@
         <v>286008890</v>
       </c>
       <c r="I85" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J85" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>2.1303200000000002</v>
       </c>
       <c r="L85" s="1">
@@ -6004,8 +6251,11 @@
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>564130085</v>
       </c>
@@ -6036,7 +6286,7 @@
       <c r="J86" s="1">
         <v>1165174364</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>0.49745</v>
       </c>
       <c r="L86" s="1">
@@ -6054,8 +6304,11 @@
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1445976590</v>
       </c>
@@ -6083,7 +6336,7 @@
       <c r="J87" s="1">
         <v>2000000005</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>0.190943</v>
       </c>
       <c r="L87" s="1">
@@ -6099,10 +6352,13 @@
         <v>162</v>
       </c>
       <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6932337</v>
       </c>
@@ -6110,7 +6366,7 @@
         <v>2.4667700000000001E-3</v>
       </c>
       <c r="C88" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D88">
         <v>-3.03</v>
@@ -6128,12 +6384,12 @@
         <v>272863006</v>
       </c>
       <c r="I88" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J88" s="1">
         <v>25000000</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="1">
         <v>39.360900000000001</v>
       </c>
       <c r="L88" s="1">
@@ -6151,8 +6407,11 @@
       <c r="P88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>62271953</v>
       </c>
@@ -6180,7 +6439,7 @@
       <c r="J89" s="1">
         <v>62271953</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>4.3081100000000001</v>
       </c>
       <c r="L89" s="1">
@@ -6196,10 +6455,13 @@
         <v>159</v>
       </c>
       <c r="P89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>430000000</v>
       </c>
@@ -6207,7 +6469,7 @@
         <v>3.8349999999999997E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D90">
         <v>2.11</v>
@@ -6225,12 +6487,12 @@
         <v>263138500</v>
       </c>
       <c r="I90" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J90" s="1">
         <v>650000000</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="1">
         <v>0.61194999999999999</v>
       </c>
       <c r="L90" s="1">
@@ -6248,8 +6510,11 @@
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>543348500</v>
       </c>
@@ -6277,7 +6542,7 @@
       <c r="J91" s="1">
         <v>1358371250</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="1">
         <v>0.46148800000000001</v>
       </c>
       <c r="L91" s="1">
@@ -6295,8 +6560,11 @@
       <c r="P91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1008885706</v>
       </c>
@@ -6324,7 +6592,7 @@
       <c r="J92" s="1">
         <v>1008885706</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="1">
         <v>0.24556</v>
       </c>
       <c r="L92" s="1">
@@ -6342,8 +6610,11 @@
       <c r="P92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>600000000</v>
       </c>
@@ -6371,7 +6642,7 @@
       <c r="J93" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="1">
         <v>0.40818500000000002</v>
       </c>
       <c r="L93" s="1">
@@ -6387,10 +6658,13 @@
         <v>162</v>
       </c>
       <c r="P93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>433150121</v>
       </c>
@@ -6418,7 +6692,7 @@
       <c r="J94" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="1">
         <v>0.56185300000000005</v>
       </c>
       <c r="L94" s="1">
@@ -6434,13 +6708,16 @@
         <v>159</v>
       </c>
       <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>184450000</v>
       </c>
@@ -6448,7 +6725,7 @@
         <v>8.1970000000000003E-5</v>
       </c>
       <c r="C95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D95">
         <v>0.59</v>
@@ -6466,12 +6743,12 @@
         <v>241245844</v>
       </c>
       <c r="I95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J95" s="1">
         <v>484450000</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="1">
         <v>1.30792</v>
       </c>
       <c r="L95" s="1">
@@ -6489,8 +6766,11 @@
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>39074645</v>
       </c>
@@ -6498,7 +6778,7 @@
         <v>3.8639000000000002E-4</v>
       </c>
       <c r="C96" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D96">
         <v>-1.95</v>
@@ -6513,12 +6793,12 @@
         <v>240913160</v>
       </c>
       <c r="I96" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J96" s="1">
         <v>39074645</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="1">
         <v>6.1654600000000004</v>
       </c>
       <c r="L96" s="1">
@@ -6536,8 +6816,11 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>13085542</v>
       </c>
@@ -6565,7 +6848,7 @@
       <c r="J97" s="1">
         <v>31587682</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="1">
         <v>18.189699999999998</v>
       </c>
       <c r="L97" s="1">
@@ -6581,10 +6864,13 @@
         <v>162</v>
       </c>
       <c r="P97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>68000000</v>
       </c>
@@ -6612,7 +6898,7 @@
       <c r="J98" s="1">
         <v>98272765</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="1">
         <v>3.4537100000000001</v>
       </c>
       <c r="L98" s="1">
@@ -6628,10 +6914,13 @@
         <v>159</v>
       </c>
       <c r="P98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>489033009</v>
       </c>
@@ -6639,7 +6928,7 @@
         <v>2.9280000000000001E-5</v>
       </c>
       <c r="C99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D99">
         <v>2.79</v>
@@ -6659,7 +6948,7 @@
       <c r="J99" s="1">
         <v>999942647</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="1">
         <v>0.46726400000000001</v>
       </c>
       <c r="L99" s="1">
@@ -6675,10 +6964,13 @@
         <v>162</v>
       </c>
       <c r="P99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>359600000</v>
       </c>
@@ -6706,7 +6998,7 @@
       <c r="J100" s="1">
         <v>444000000</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="1">
         <v>0.62237299999999995</v>
       </c>
       <c r="L100" s="1">
@@ -6722,10 +7014,13 @@
         <v>175</v>
       </c>
       <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1029190905</v>
       </c>
@@ -6733,7 +7028,7 @@
         <v>1.346E-5</v>
       </c>
       <c r="C101" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D101">
         <v>-0.22</v>
@@ -6748,12 +7043,12 @@
         <v>221102111</v>
       </c>
       <c r="I101" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J101" s="1">
         <v>2805886393</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="1">
         <v>0.21483099999999999</v>
       </c>
       <c r="L101" s="1">
@@ -6769,10 +7064,13 @@
         <v>162</v>
       </c>
       <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>150000000</v>
       </c>
@@ -6780,7 +7078,7 @@
         <v>9.2040000000000006E-5</v>
       </c>
       <c r="C102" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D102">
         <v>-0.19</v>
@@ -6795,12 +7093,12 @@
         <v>220285500</v>
       </c>
       <c r="I102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J102" s="1">
         <v>500000000</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="1">
         <v>1.4685699999999999</v>
       </c>
       <c r="L102" s="1">
@@ -6816,10 +7114,13 @@
         <v>162</v>
       </c>
       <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>144590975</v>
       </c>
@@ -6827,7 +7128,7 @@
         <v>8.9450000000000006E-5</v>
       </c>
       <c r="C103" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D103">
         <v>-1.0900000000000001</v>
@@ -6842,12 +7143,12 @@
         <v>206381928</v>
       </c>
       <c r="I103" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J103" s="1">
         <v>361477438</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="1">
         <v>1.4273499999999999</v>
       </c>
       <c r="L103" s="1">
@@ -6863,10 +7164,13 @@
         <v>175</v>
       </c>
       <c r="P103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>600000000</v>
       </c>
@@ -6894,7 +7198,7 @@
       <c r="J104" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="1">
         <v>0.33743000000000001</v>
       </c>
       <c r="L104" s="1">
@@ -6910,10 +7214,16 @@
         <v>162</v>
       </c>
       <c r="P104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45248033</v>
       </c>
@@ -6921,7 +7231,7 @@
         <v>2.6787000000000002E-4</v>
       </c>
       <c r="C105" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D105">
         <v>5.59</v>
@@ -6936,12 +7246,12 @@
         <v>193399142</v>
       </c>
       <c r="I105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J105" s="1">
         <v>99218023</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="1">
         <v>4.2742000000000004</v>
       </c>
       <c r="L105" s="1">
@@ -6957,10 +7267,13 @@
         <v>162</v>
       </c>
       <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>60248315</v>
       </c>
@@ -6991,7 +7304,7 @@
       <c r="J106" s="1">
         <v>100000000</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="1">
         <v>3.19265</v>
       </c>
       <c r="L106" s="1">
@@ -7007,10 +7320,13 @@
         <v>162</v>
       </c>
       <c r="P106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>32105578</v>
       </c>
@@ -7038,7 +7354,7 @@
       <c r="J107" s="1">
         <v>32105578</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="1">
         <v>5.8456099999999998</v>
       </c>
       <c r="L107" s="1">
@@ -7054,10 +7370,13 @@
         <v>162</v>
       </c>
       <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>428481269</v>
       </c>
@@ -7085,7 +7404,7 @@
       <c r="J108" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="1">
         <v>0.42252200000000001</v>
       </c>
       <c r="L108" s="1">
@@ -7101,10 +7420,13 @@
         <v>162</v>
       </c>
       <c r="P108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>216270518</v>
       </c>
@@ -7132,7 +7454,7 @@
       <c r="J109" s="1">
         <v>216270518</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="1">
         <v>0.83058299999999996</v>
       </c>
       <c r="L109" s="1">
@@ -7150,8 +7472,11 @@
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>59805880</v>
       </c>
@@ -7179,7 +7504,7 @@
       <c r="J110" s="1">
         <v>88862718</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="1">
         <v>2.93</v>
       </c>
       <c r="L110" s="1">
@@ -7195,13 +7520,16 @@
         <v>162</v>
       </c>
       <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41171367</v>
       </c>
@@ -7209,7 +7537,7 @@
         <v>2.5578999999999999E-4</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D111">
         <v>1.75</v>
@@ -7224,12 +7552,12 @@
         <v>168042993</v>
       </c>
       <c r="I111" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J111" s="1">
         <v>41171367</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="1">
         <v>4.08155</v>
       </c>
       <c r="L111" s="1">
@@ -7247,8 +7575,11 @@
       <c r="P111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>89708333</v>
       </c>
@@ -7256,7 +7587,7 @@
         <v>1.1681E-4</v>
       </c>
       <c r="C112" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D112">
         <v>-0.7</v>
@@ -7271,12 +7602,12 @@
         <v>167210950</v>
       </c>
       <c r="I112" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J112" s="1">
         <v>100000000</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="1">
         <v>1.8639399999999999</v>
       </c>
       <c r="L112" s="1">
@@ -7292,10 +7623,13 @@
         <v>162</v>
       </c>
       <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>23564882</v>
       </c>
@@ -7323,7 +7657,7 @@
       <c r="J113" s="1">
         <v>40000000</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="1">
         <v>7.0511100000000004</v>
       </c>
       <c r="L113" s="1">
@@ -7339,13 +7673,16 @@
         <v>175</v>
       </c>
       <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>18266200</v>
       </c>
@@ -7376,7 +7713,7 @@
       <c r="J114" s="1">
         <v>27266200</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="1">
         <v>9.0632400000000004</v>
       </c>
       <c r="L114" s="1">
@@ -7392,13 +7729,16 @@
         <v>175</v>
       </c>
       <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2951000</v>
       </c>
@@ -7406,7 +7746,7 @@
         <v>3.4947400000000001E-3</v>
       </c>
       <c r="C115" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D115">
         <v>-0.12</v>
@@ -7424,12 +7764,12 @@
         <v>164558089</v>
       </c>
       <c r="I115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J115" s="1">
         <v>2951000</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="1">
         <v>55.763500000000001</v>
       </c>
       <c r="L115" s="1">
@@ -7447,8 +7787,11 @@
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>98028877</v>
       </c>
@@ -7476,7 +7819,7 @@
       <c r="J116" s="1">
         <v>100000000</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="1">
         <v>1.65483</v>
       </c>
       <c r="L116" s="1">
@@ -7494,8 +7837,11 @@
       <c r="P116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>24561574</v>
       </c>
@@ -7503,7 +7849,7 @@
         <v>4.0517E-4</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D117">
         <v>0.91</v>
@@ -7518,12 +7864,12 @@
         <v>158791806</v>
       </c>
       <c r="I117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J117" s="1">
         <v>24561574</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="1">
         <v>6.4650499999999997</v>
       </c>
       <c r="L117" s="1">
@@ -7541,8 +7887,11 @@
       <c r="P117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>485146253</v>
       </c>
@@ -7550,7 +7899,7 @@
         <v>2.05E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D118">
         <v>-2.5</v>
@@ -7565,12 +7914,12 @@
         <v>158684547</v>
       </c>
       <c r="I118" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J118" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="1">
         <v>0.32708599999999999</v>
       </c>
       <c r="L118" s="1">
@@ -7586,10 +7935,13 @@
         <v>159</v>
       </c>
       <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>900000000</v>
       </c>
@@ -7620,7 +7972,7 @@
       <c r="J119" s="1">
         <v>900000000</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="1">
         <v>0.17552100000000001</v>
       </c>
       <c r="L119" s="1">
@@ -7638,8 +7990,11 @@
       <c r="P119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>173256993</v>
       </c>
@@ -7667,7 +8022,7 @@
       <c r="J120" s="1">
         <v>500000000</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="1">
         <v>0.87827999999999995</v>
       </c>
       <c r="L120" s="1">
@@ -7685,8 +8040,11 @@
       <c r="P120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>128822370</v>
       </c>
@@ -7694,7 +8052,7 @@
         <v>7.3289999999999998E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D121">
         <v>0.74</v>
@@ -7709,12 +8067,12 @@
         <v>150657762</v>
       </c>
       <c r="I121" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J121" s="1">
         <v>515722373</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="1">
         <v>1.1695</v>
       </c>
       <c r="L121" s="1">
@@ -7732,8 +8090,11 @@
       <c r="P121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>31301449</v>
       </c>
@@ -7741,7 +8102,7 @@
         <v>2.9719000000000002E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D122">
         <v>12.04</v>
@@ -7756,12 +8117,12 @@
         <v>148436792</v>
       </c>
       <c r="I122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J122" s="1">
         <v>48240070</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="1">
         <v>4.7421699999999998</v>
       </c>
       <c r="L122" s="1">
@@ -7779,8 +8140,11 @@
       <c r="P122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>22620193</v>
       </c>
@@ -7808,7 +8172,7 @@
       <c r="J123" s="1">
         <v>90408327</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="1">
         <v>6.5275499999999997</v>
       </c>
       <c r="L123" s="1">
@@ -7824,10 +8188,13 @@
         <v>162</v>
       </c>
       <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>77839404</v>
       </c>
@@ -7858,7 +8225,7 @@
       <c r="J124" s="1">
         <v>400000000</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="1">
         <v>1.88642</v>
       </c>
       <c r="L124" s="1">
@@ -7876,11 +8243,14 @@
       <c r="P124">
         <v>0</v>
       </c>
-      <c r="Q124" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>3726781</v>
       </c>
@@ -7888,7 +8258,7 @@
         <v>2.3283499999999999E-3</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D125">
         <v>8.27</v>
@@ -7903,12 +8273,12 @@
         <v>138457737</v>
       </c>
       <c r="I125" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J125" s="1">
         <v>4436644</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="1">
         <v>37.152099999999997</v>
       </c>
       <c r="L125" s="1">
@@ -7924,10 +8294,13 @@
         <v>175</v>
       </c>
       <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>300043386</v>
       </c>
@@ -7955,7 +8328,7 @@
       <c r="J126" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="1">
         <v>0.45342100000000002</v>
       </c>
       <c r="L126" s="1">
@@ -7973,11 +8346,14 @@
       <c r="P126">
         <v>0</v>
       </c>
-      <c r="Q126" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>5053693</v>
       </c>
@@ -7985,7 +8361,7 @@
         <v>1.67746E-3</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D127">
         <v>1.29</v>
@@ -8000,12 +8376,12 @@
         <v>135268158</v>
       </c>
       <c r="I127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J127" s="1">
         <v>5053693</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="1">
         <v>26.766200000000001</v>
       </c>
       <c r="L127" s="1">
@@ -8023,8 +8399,11 @@
       <c r="P127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>560650080</v>
       </c>
@@ -8032,7 +8411,7 @@
         <v>1.488E-5</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D128">
         <v>-1.27</v>
@@ -8047,12 +8426,12 @@
         <v>133110663</v>
       </c>
       <c r="I128" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J128" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="1">
         <v>0.23742199999999999</v>
       </c>
       <c r="L128" s="1">
@@ -8068,10 +8447,13 @@
         <v>162</v>
       </c>
       <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>91726403</v>
       </c>
@@ -8079,7 +8461,7 @@
         <v>8.9499999999999994E-5</v>
       </c>
       <c r="C129" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D129">
         <v>-3.29</v>
@@ -8094,12 +8476,12 @@
         <v>130988973</v>
       </c>
       <c r="I129" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J129" s="1">
         <v>113226403</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="1">
         <v>1.42804</v>
       </c>
       <c r="L129" s="1">
@@ -8117,8 +8499,11 @@
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>19300994</v>
       </c>
@@ -8146,7 +8531,7 @@
       <c r="J130" s="1">
         <v>66588888</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="1">
         <v>6.5796999999999999</v>
       </c>
       <c r="L130" s="1">
@@ -8162,13 +8547,16 @@
         <v>159</v>
       </c>
       <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>157861327</v>
       </c>
@@ -8196,7 +8584,7 @@
       <c r="J131" s="1">
         <v>1000000000</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="1">
         <v>0.78100899999999995</v>
       </c>
       <c r="L131" s="1">
@@ -8212,13 +8600,16 @@
         <v>162</v>
       </c>
       <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>69171764</v>
       </c>
@@ -8249,7 +8640,7 @@
       <c r="J132" s="1">
         <v>69171764</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="1">
         <v>1.69451</v>
       </c>
       <c r="L132" s="1">
@@ -8267,8 +8658,11 @@
       <c r="P132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>20785264</v>
       </c>
@@ -8296,7 +8690,7 @@
       <c r="J133" s="1">
         <v>20785264</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="1">
         <v>5.5730300000000002</v>
       </c>
       <c r="L133" s="1">
@@ -8314,8 +8708,11 @@
       <c r="P133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>31823026</v>
       </c>
@@ -8343,7 +8740,7 @@
       <c r="J134" s="1">
         <v>108592692</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="1">
         <v>3.5253999999999999</v>
       </c>
       <c r="L134" s="1">
@@ -8361,8 +8758,11 @@
       <c r="P134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>216964020</v>
       </c>
@@ -8390,7 +8790,7 @@
       <c r="J135" s="1">
         <v>402400000</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="1">
         <v>0.51144500000000004</v>
       </c>
       <c r="L135" s="1">
@@ -8406,10 +8806,13 @@
         <v>175</v>
       </c>
       <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>187637320</v>
       </c>
@@ -8417,7 +8820,7 @@
         <v>3.7020000000000001E-5</v>
       </c>
       <c r="C136" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D136">
         <v>1.06</v>
@@ -8435,12 +8838,12 @@
         <v>110851438</v>
       </c>
       <c r="I136" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J136" s="1">
         <v>187637320</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="1">
         <v>0.59077500000000005</v>
       </c>
       <c r="L136" s="1">
@@ -8458,8 +8861,11 @@
       <c r="P136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>116894495</v>
       </c>
@@ -8487,7 +8893,7 @@
       <c r="J137" s="1">
         <v>500000000</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="1">
         <v>0.88730399999999998</v>
       </c>
       <c r="L137" s="1">
@@ -8505,8 +8911,11 @@
       <c r="P137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>172364677</v>
       </c>
@@ -8537,7 +8946,7 @@
       <c r="J138" s="1">
         <v>179147171</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <v>0.60157400000000005</v>
       </c>
       <c r="L138" s="1">
@@ -8555,8 +8964,11 @@
       <c r="P138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>162299801</v>
       </c>
@@ -8584,7 +8996,7 @@
       <c r="J139" s="1">
         <v>200000000</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="1">
         <v>0.63739599999999996</v>
       </c>
       <c r="L139" s="1">
@@ -8600,13 +9012,16 @@
         <v>162</v>
       </c>
       <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2297853</v>
       </c>
@@ -8614,7 +9029,7 @@
         <v>2.78729E-3</v>
       </c>
       <c r="C140" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D140">
         <v>1.54</v>
@@ -8629,12 +9044,12 @@
         <v>102197475</v>
       </c>
       <c r="I140" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J140" s="1">
         <v>2703356</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="1">
         <v>44.475200000000001</v>
       </c>
       <c r="L140" s="1">
@@ -8650,10 +9065,13 @@
         <v>162</v>
       </c>
       <c r="P140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>405002639</v>
       </c>
@@ -8681,7 +9099,7 @@
       <c r="J141" s="1">
         <v>651129644</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="1">
         <v>0.25231199999999998</v>
       </c>
       <c r="L141" s="1">
@@ -8699,11 +9117,14 @@
       <c r="P141">
         <v>0</v>
       </c>
-      <c r="Q141" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>85978873</v>
       </c>
@@ -8711,7 +9132,7 @@
         <v>7.3570000000000002E-5</v>
       </c>
       <c r="C142" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D142">
         <v>0.75</v>
@@ -8726,12 +9147,12 @@
         <v>100937477</v>
       </c>
       <c r="I142" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J142" s="1">
         <v>130271020</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="1">
         <v>1.17398</v>
       </c>
       <c r="L142" s="1">
@@ -8747,10 +9168,13 @@
         <v>162</v>
       </c>
       <c r="P142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>16500000</v>
       </c>
@@ -8778,7 +9202,7 @@
       <c r="J143" s="1">
         <v>25000000</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="1">
         <v>6.0435299999999996</v>
       </c>
       <c r="L143" s="1">
@@ -8794,13 +9218,16 @@
         <v>175</v>
       </c>
       <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>175109299</v>
       </c>
@@ -8828,7 +9255,7 @@
       <c r="J144" s="1">
         <v>245209299</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="1">
         <v>0.45951700000000001</v>
       </c>
       <c r="L144" s="1">
@@ -8846,8 +9273,11 @@
       <c r="P144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>16748900</v>
       </c>
@@ -8875,7 +9305,7 @@
       <c r="J145" s="1">
         <v>16748900</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="1">
         <v>4.77576</v>
       </c>
       <c r="L145" s="1">
@@ -8893,8 +9323,11 @@
       <c r="P145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>40000000</v>
       </c>
@@ -8922,7 +9355,7 @@
       <c r="J146" s="1">
         <v>62500000</v>
       </c>
-      <c r="K146">
+      <c r="K146" s="1">
         <v>1.9495</v>
       </c>
       <c r="L146" s="1">
@@ -8940,8 +9373,11 @@
       <c r="P146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>76594531</v>
       </c>
@@ -8969,7 +9405,7 @@
       <c r="J147" s="1">
         <v>76594531</v>
       </c>
-      <c r="K147">
+      <c r="K147" s="1">
         <v>1.0082800000000001</v>
       </c>
       <c r="L147" s="1">
@@ -8987,8 +9423,11 @@
       <c r="P147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45166200</v>
       </c>
@@ -9016,7 +9455,7 @@
       <c r="J148" s="1">
         <v>116158667</v>
       </c>
-      <c r="K148">
+      <c r="K148" s="1">
         <v>1.7008000000000001</v>
       </c>
       <c r="L148" s="1">
@@ -9032,13 +9471,16 @@
         <v>159</v>
       </c>
       <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>10500000</v>
       </c>
@@ -9066,7 +9508,7 @@
       <c r="J149" s="1">
         <v>10500000</v>
       </c>
-      <c r="K149">
+      <c r="K149" s="1">
         <v>7.1544299999999996</v>
       </c>
       <c r="L149" s="1">
@@ -9084,8 +9526,11 @@
       <c r="P149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>30402849</v>
       </c>
@@ -9113,7 +9558,7 @@
       <c r="J150" s="1">
         <v>30402849</v>
       </c>
-      <c r="K150">
+      <c r="K150" s="1">
         <v>2.3182</v>
       </c>
       <c r="L150" s="1">
@@ -9131,8 +9576,11 @@
       <c r="P150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42710305</v>
       </c>
@@ -9160,7 +9608,7 @@
       <c r="J151" s="1">
         <v>58550029</v>
       </c>
-      <c r="K151">
+      <c r="K151" s="1">
         <v>1.6008199999999999</v>
       </c>
       <c r="L151" s="1">
@@ -9178,8 +9626,11 @@
       <c r="P151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>62366926</v>
       </c>
@@ -9207,7 +9658,7 @@
       <c r="J152" s="1">
         <v>1395076054</v>
       </c>
-      <c r="K152">
+      <c r="K152" s="1">
         <v>1.06955</v>
       </c>
       <c r="L152" s="1">
@@ -9223,10 +9674,13 @@
         <v>162</v>
       </c>
       <c r="P152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>7906397</v>
       </c>
@@ -9254,7 +9708,7 @@
       <c r="J153" s="1">
         <v>16906397</v>
       </c>
-      <c r="K153">
+      <c r="K153" s="1">
         <v>8.0040499999999994</v>
       </c>
       <c r="L153" s="1">
@@ -9272,8 +9726,11 @@
       <c r="P153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>18582933</v>
       </c>
@@ -9301,7 +9758,7 @@
       <c r="J154" s="1">
         <v>33787150</v>
       </c>
-      <c r="K154">
+      <c r="K154" s="1">
         <v>3.4035000000000002</v>
       </c>
       <c r="L154" s="1">
@@ -9319,8 +9776,11 @@
       <c r="P154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>547986520</v>
       </c>
@@ -9348,7 +9808,7 @@
       <c r="J155" s="1">
         <v>547986520</v>
       </c>
-      <c r="K155">
+      <c r="K155" s="1">
         <v>0.114914</v>
       </c>
       <c r="L155" s="1">
@@ -9366,8 +9826,11 @@
       <c r="P155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>8118382</v>
       </c>
@@ -9395,7 +9858,7 @@
       <c r="J156" s="1">
         <v>11618382</v>
       </c>
-      <c r="K156">
+      <c r="K156" s="1">
         <v>7.0438700000000001</v>
       </c>
       <c r="L156" s="1">
@@ -9413,8 +9876,11 @@
       <c r="P156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>25009250</v>
       </c>
@@ -9442,7 +9908,7 @@
       <c r="J157" s="1">
         <v>100000000</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="1">
         <v>2.1981199999999999</v>
       </c>
       <c r="L157" s="1">
@@ -9458,10 +9924,13 @@
         <v>162</v>
       </c>
       <c r="P157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>72057791</v>
       </c>
@@ -9489,7 +9958,7 @@
       <c r="J158" s="1">
         <v>189151329</v>
       </c>
-      <c r="K158">
+      <c r="K158" s="1">
         <v>0.76235399999999998</v>
       </c>
       <c r="L158" s="1">
@@ -9507,8 +9976,11 @@
       <c r="P158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5143007</v>
       </c>
@@ -9536,7 +10008,7 @@
       <c r="J159" s="1">
         <v>6171607</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="1">
         <v>10.6645</v>
       </c>
       <c r="L159" s="1">
@@ -9554,11 +10026,14 @@
       <c r="P159">
         <v>0</v>
       </c>
-      <c r="Q159" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>4740587</v>
       </c>
@@ -9586,7 +10061,7 @@
       <c r="J160" s="1">
         <v>19308452</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="1">
         <v>11.3391</v>
       </c>
       <c r="L160" s="1">
@@ -9604,8 +10079,11 @@
       <c r="P160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>13000000</v>
       </c>
@@ -9633,7 +10111,7 @@
       <c r="J161" s="1">
         <v>20000000</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="1">
         <v>3.9239899999999999</v>
       </c>
       <c r="L161" s="1">
@@ -9649,10 +10127,13 @@
         <v>162</v>
       </c>
       <c r="P161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>643012000</v>
       </c>
@@ -9680,7 +10161,7 @@
       <c r="J162" s="1">
         <v>825578000</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="1">
         <v>7.5530299999999995E-2</v>
       </c>
       <c r="L162" s="1">
@@ -9698,8 +10179,11 @@
       <c r="P162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>15953050</v>
       </c>
@@ -9730,7 +10214,7 @@
       <c r="J163" s="1">
         <v>15953050</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="1">
         <v>2.9700600000000001</v>
       </c>
       <c r="L163" s="1">
@@ -9748,8 +10232,11 @@
       <c r="P163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44713594</v>
       </c>
@@ -9777,7 +10264,7 @@
       <c r="J164" s="1">
         <v>70981320</v>
       </c>
-      <c r="K164">
+      <c r="K164" s="1">
         <v>1.0077199999999999</v>
       </c>
       <c r="L164" s="1">
@@ -9795,8 +10282,11 @@
       <c r="P164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>38538648</v>
       </c>
@@ -9824,7 +10314,7 @@
       <c r="J165" s="1">
         <v>75209200</v>
       </c>
-      <c r="K165">
+      <c r="K165" s="1">
         <v>1.1395900000000001</v>
       </c>
       <c r="L165" s="1">
@@ -9842,8 +10332,11 @@
       <c r="P165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>37109887</v>
       </c>
@@ -9871,7 +10364,7 @@
       <c r="J166" s="1">
         <v>79184116</v>
       </c>
-      <c r="K166">
+      <c r="K166" s="1">
         <v>1.1535</v>
       </c>
       <c r="L166" s="1">
@@ -9889,8 +10382,11 @@
       <c r="P166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>6883919</v>
       </c>
@@ -9921,7 +10417,7 @@
       <c r="J167" s="1">
         <v>7509492</v>
       </c>
-      <c r="K167">
+      <c r="K167" s="1">
         <v>5.9873599999999998</v>
       </c>
       <c r="L167" s="1">
@@ -9939,8 +10435,11 @@
       <c r="P167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>191381257</v>
       </c>
@@ -9968,7 +10467,7 @@
       <c r="J168" s="1">
         <v>191381257</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="1">
         <v>0.203599</v>
       </c>
       <c r="L168" s="1">
@@ -9986,8 +10485,11 @@
       <c r="P168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>912102</v>
       </c>
@@ -10015,7 +10517,7 @@
       <c r="J169" s="1">
         <v>1061803</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="1">
         <v>42.282499999999999</v>
       </c>
       <c r="L169" s="1">
@@ -10033,8 +10535,11 @@
       <c r="P169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>377576999</v>
       </c>
@@ -10062,7 +10567,7 @@
       <c r="J170" s="1">
         <v>390576999</v>
       </c>
-      <c r="K170">
+      <c r="K170" s="1">
         <v>0.101745</v>
       </c>
       <c r="L170" s="1">
@@ -10080,8 +10585,11 @@
       <c r="P170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>27803782</v>
       </c>
@@ -10109,7 +10617,7 @@
       <c r="J171" s="1">
         <v>27803782</v>
       </c>
-      <c r="K171">
+      <c r="K171" s="1">
         <v>1.3713299999999999</v>
       </c>
       <c r="L171" s="1">
@@ -10127,8 +10635,11 @@
       <c r="P171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>17773225</v>
       </c>
@@ -10156,7 +10667,7 @@
       <c r="J172" s="1">
         <v>17773225</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="1">
         <v>2.1281099999999999</v>
       </c>
       <c r="L172" s="1">
@@ -10174,8 +10685,11 @@
       <c r="P172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>3592379</v>
       </c>
@@ -10206,7 +10720,7 @@
       <c r="J173" s="1">
         <v>82630002</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="1">
         <v>10.4816</v>
       </c>
       <c r="L173" s="1">
@@ -10224,8 +10738,11 @@
       <c r="P173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2799476</v>
       </c>
@@ -10253,7 +10770,7 @@
       <c r="J174" s="1">
         <v>2812073</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="1">
         <v>12.4984</v>
       </c>
       <c r="L174" s="1">
@@ -10271,8 +10788,11 @@
       <c r="P174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>17029321</v>
       </c>
@@ -10300,7 +10820,7 @@
       <c r="J175" s="1">
         <v>200000000</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="1">
         <v>2.03626</v>
       </c>
       <c r="L175" s="1">
@@ -10318,11 +10838,14 @@
       <c r="P175">
         <v>0</v>
       </c>
-      <c r="Q175" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>25000000</v>
       </c>
@@ -10350,7 +10873,7 @@
       <c r="J176" s="1">
         <v>92639586</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="1">
         <v>1.2767999999999999</v>
       </c>
       <c r="L176" s="1">
@@ -10368,8 +10891,11 @@
       <c r="P176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>7360121</v>
       </c>
@@ -10397,7 +10923,7 @@
       <c r="J177" s="1">
         <v>9200151</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="1">
         <v>3.81629</v>
       </c>
       <c r="L177" s="1">
@@ -10415,8 +10941,11 @@
       <c r="P177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1826196</v>
       </c>
@@ -10444,7 +10973,7 @@
       <c r="J178" s="1">
         <v>1826196</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="1">
         <v>13.7362</v>
       </c>
       <c r="L178" s="1">
@@ -10462,8 +10991,11 @@
       <c r="P178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2827061</v>
       </c>
@@ -10494,7 +11026,7 @@
       <c r="J179" s="1">
         <v>11715950</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="1">
         <v>8.7383299999999995</v>
       </c>
       <c r="L179" s="1">
@@ -10512,8 +11044,11 @@
       <c r="P179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>6278702</v>
       </c>
@@ -10541,7 +11076,7 @@
       <c r="J180" s="1">
         <v>6278702</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="1">
         <v>3.8909400000000001</v>
       </c>
       <c r="L180" s="1">
@@ -10559,8 +11094,11 @@
       <c r="P180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>17873502</v>
       </c>
@@ -10588,7 +11126,7 @@
       <c r="J181" s="1">
         <v>19803895</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="1">
         <v>1.3271200000000001</v>
       </c>
       <c r="L181" s="1">
@@ -10606,8 +11144,11 @@
       <c r="P181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>14400000</v>
       </c>
@@ -10635,7 +11176,7 @@
       <c r="J182" s="1">
         <v>24000000</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="1">
         <v>1.5339799999999999</v>
       </c>
       <c r="L182" s="1">
@@ -10653,8 +11194,11 @@
       <c r="P182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>198037</v>
       </c>
@@ -10682,7 +11226,7 @@
       <c r="J183" s="1">
         <v>198037</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="1">
         <v>111.443</v>
       </c>
       <c r="L183" s="1">
@@ -10700,8 +11244,11 @@
       <c r="P183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2319618187</v>
       </c>
@@ -10729,7 +11276,7 @@
       <c r="J184" s="1">
         <v>2319618187</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="1">
         <v>9.4316899999999995E-3</v>
       </c>
       <c r="L184" s="1">
@@ -10747,8 +11294,11 @@
       <c r="P184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>100356508</v>
       </c>
@@ -10776,7 +11326,7 @@
       <c r="J185" s="1">
         <v>110356508</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="1">
         <v>0.21069399999999999</v>
       </c>
       <c r="L185" s="1">
@@ -10794,8 +11344,11 @@
       <c r="P185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>33201788</v>
       </c>
@@ -10826,7 +11379,7 @@
       <c r="J186" s="1">
         <v>33201788</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="1">
         <v>0.62217199999999995</v>
       </c>
       <c r="L186" s="1">
@@ -10844,8 +11397,11 @@
       <c r="P186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1850949</v>
       </c>
@@ -10876,7 +11432,7 @@
       <c r="J187" s="1">
         <v>2168495</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="1">
         <v>10.9651</v>
       </c>
       <c r="L187" s="1">
@@ -10894,8 +11450,11 @@
       <c r="P187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>31485206</v>
       </c>
@@ -10923,7 +11482,7 @@
       <c r="J188" s="1">
         <v>33675149</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="1">
         <v>0.60751200000000005</v>
       </c>
       <c r="L188" s="1">
@@ -10941,8 +11500,11 @@
       <c r="P188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>653351</v>
       </c>
@@ -10970,7 +11532,7 @@
       <c r="J189" s="1">
         <v>1003351</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="1">
         <v>29.204899999999999</v>
       </c>
       <c r="L189" s="1">
@@ -10988,8 +11550,11 @@
       <c r="P189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>253783747</v>
       </c>
@@ -11017,7 +11582,7 @@
       <c r="J190" s="1">
         <v>253783747</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="1">
         <v>7.2159200000000007E-2</v>
       </c>
       <c r="L190" s="1">
@@ -11035,8 +11600,11 @@
       <c r="P190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>803523</v>
       </c>
@@ -11067,7 +11635,7 @@
       <c r="J191" s="1">
         <v>3803523</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="1">
         <v>22.218800000000002</v>
       </c>
       <c r="L191" s="1">
@@ -11085,8 +11653,11 @@
       <c r="P191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>448194</v>
       </c>
@@ -11117,7 +11688,7 @@
       <c r="J192" s="1">
         <v>1273181</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="1">
         <v>39.735900000000001</v>
       </c>
       <c r="L192" s="1">
@@ -11135,8 +11706,11 @@
       <c r="P192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>12594934</v>
       </c>
@@ -11167,7 +11741,7 @@
       <c r="J193" s="1">
         <v>16694934</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="1">
         <v>1.3547400000000001</v>
       </c>
       <c r="L193" s="1">
@@ -11185,46 +11759,52 @@
       <c r="P193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1233755378</v>
+        <v>85933800</v>
       </c>
       <c r="B194" s="3">
-        <v>8.5000000000000001E-7</v>
+        <v>1.1440000000000001E-5</v>
       </c>
       <c r="C194" t="s">
-        <v>368</v>
+        <v>64</v>
       </c>
       <c r="D194">
-        <v>-0.68</v>
+        <v>0.77</v>
       </c>
       <c r="E194">
-        <v>1.61</v>
+        <v>-4.63</v>
       </c>
       <c r="F194">
-        <v>177.38</v>
+        <v>41.64</v>
+      </c>
+      <c r="G194" s="1">
+        <v>400000000</v>
       </c>
       <c r="H194" s="1">
-        <v>16764268</v>
+        <v>15719870</v>
       </c>
       <c r="I194" t="s">
-        <v>369</v>
+        <v>65</v>
       </c>
       <c r="J194" s="1">
-        <v>1233755378</v>
-      </c>
-      <c r="K194">
-        <v>1.3587999999999999E-2</v>
+        <v>97933800</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0.18293000000000001</v>
       </c>
       <c r="L194" s="1">
-        <v>10014.1</v>
+        <v>75533.8</v>
       </c>
       <c r="M194">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="N194" s="2">
-        <v>43104</v>
+        <v>43107</v>
       </c>
       <c r="O194" t="s">
         <v>159</v>
@@ -11232,193 +11812,205 @@
       <c r="P194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>85933800</v>
+        <v>7378596</v>
       </c>
       <c r="B195" s="3">
-        <v>1.1440000000000001E-5</v>
+        <v>1.3239999999999999E-4</v>
       </c>
       <c r="C195" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D195">
-        <v>0.77</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="E195">
-        <v>-4.63</v>
+        <v>25.21</v>
       </c>
       <c r="F195">
-        <v>41.64</v>
-      </c>
-      <c r="G195" s="1">
-        <v>400000000</v>
+        <v>43.58</v>
       </c>
       <c r="H195" s="1">
-        <v>15719870</v>
+        <v>15617610</v>
       </c>
       <c r="I195" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="J195" s="1">
-        <v>97933800</v>
-      </c>
-      <c r="K195">
-        <v>0.18293000000000001</v>
+        <v>7378596</v>
+      </c>
+      <c r="K195" s="1">
+        <v>2.1166100000000001</v>
       </c>
       <c r="L195" s="1">
-        <v>75533.8</v>
+        <v>390391</v>
       </c>
       <c r="M195">
-        <v>110</v>
-      </c>
-      <c r="N195" s="2">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>159</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1340078</v>
+      </c>
+      <c r="B196" s="3">
+        <v>7.0100000000000002E-4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196">
+        <v>-0.94</v>
+      </c>
+      <c r="E196">
+        <v>-2.57</v>
+      </c>
+      <c r="F196">
+        <v>97.28</v>
+      </c>
+      <c r="G196" s="1">
+        <v>42000000</v>
+      </c>
+      <c r="H196" s="1">
+        <v>15017047</v>
+      </c>
+      <c r="I196" t="s">
+        <v>45</v>
+      </c>
+      <c r="J196" s="1">
+        <v>2090078</v>
+      </c>
+      <c r="K196" s="1">
+        <v>11.206099999999999</v>
+      </c>
+      <c r="L196" s="1">
+        <v>265913</v>
+      </c>
+      <c r="M196">
+        <v>121</v>
+      </c>
+      <c r="N196" s="2">
+        <v>43108</v>
+      </c>
+      <c r="O196" t="s">
+        <v>159</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>16714020</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5.4389999999999999E-5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197">
+        <v>-5.45</v>
+      </c>
+      <c r="E197">
+        <v>-3.14</v>
+      </c>
+      <c r="F197">
+        <v>154.66</v>
+      </c>
+      <c r="H197" s="1">
+        <v>14532740</v>
+      </c>
+      <c r="I197" t="s">
+        <v>105</v>
+      </c>
+      <c r="J197" s="1">
+        <v>16714020</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0.86949399999999999</v>
+      </c>
+      <c r="L197" s="1">
+        <v>122922</v>
+      </c>
+      <c r="M197">
+        <v>34</v>
+      </c>
+      <c r="N197" s="2">
         <v>43107</v>
       </c>
-      <c r="O195" t="s">
-        <v>159</v>
-      </c>
-      <c r="P195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>7378596</v>
-      </c>
-      <c r="B196" s="3">
-        <v>1.3239999999999999E-4</v>
-      </c>
-      <c r="C196" t="s">
-        <v>232</v>
-      </c>
-      <c r="D196">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="E196">
-        <v>25.21</v>
-      </c>
-      <c r="F196">
-        <v>43.58</v>
-      </c>
-      <c r="H196" s="1">
-        <v>15617610</v>
-      </c>
-      <c r="I196" t="s">
-        <v>233</v>
-      </c>
-      <c r="J196" s="1">
-        <v>7378596</v>
-      </c>
-      <c r="K196">
-        <v>2.1166100000000001</v>
-      </c>
-      <c r="L196" s="1">
-        <v>390391</v>
-      </c>
-      <c r="M196">
-        <v>0</v>
-      </c>
-      <c r="N196">
-        <v>0</v>
-      </c>
-      <c r="O196" t="s">
-        <v>159</v>
-      </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>1340078</v>
-      </c>
-      <c r="B197" s="3">
-        <v>7.0100000000000002E-4</v>
-      </c>
-      <c r="C197" t="s">
-        <v>44</v>
-      </c>
-      <c r="D197">
-        <v>-0.94</v>
-      </c>
-      <c r="E197">
-        <v>-2.57</v>
-      </c>
-      <c r="F197">
-        <v>97.28</v>
-      </c>
-      <c r="G197" s="1">
-        <v>42000000</v>
-      </c>
-      <c r="H197" s="1">
-        <v>15017047</v>
-      </c>
-      <c r="I197" t="s">
-        <v>45</v>
-      </c>
-      <c r="J197" s="1">
-        <v>2090078</v>
-      </c>
-      <c r="K197">
-        <v>11.206099999999999</v>
-      </c>
-      <c r="L197" s="1">
-        <v>265913</v>
-      </c>
-      <c r="M197">
-        <v>121</v>
-      </c>
-      <c r="N197" s="2">
-        <v>43108</v>
-      </c>
       <c r="O197" t="s">
         <v>159</v>
       </c>
       <c r="P197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>16714020</v>
+        <v>22797800</v>
       </c>
       <c r="B198" s="3">
-        <v>5.4389999999999999E-5</v>
+        <v>3.9669999999999998E-5</v>
       </c>
       <c r="C198" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="D198">
-        <v>-5.45</v>
+        <v>-11.86</v>
       </c>
       <c r="E198">
-        <v>-3.14</v>
+        <v>50.3</v>
       </c>
       <c r="F198">
-        <v>154.66</v>
+        <v>112.57</v>
+      </c>
+      <c r="G198" s="1">
+        <v>84000000</v>
       </c>
       <c r="H198" s="1">
-        <v>14532740</v>
+        <v>14458730</v>
       </c>
       <c r="I198" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="J198" s="1">
-        <v>16714020</v>
-      </c>
-      <c r="K198">
-        <v>0.86949399999999999</v>
+        <v>22797800</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0.634216</v>
       </c>
       <c r="L198" s="1">
-        <v>122922</v>
+        <v>662790</v>
       </c>
       <c r="M198">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N198" s="2">
         <v>43107</v>
@@ -11429,49 +12021,49 @@
       <c r="P198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>22797800</v>
+        <v>15128969</v>
       </c>
       <c r="B199" s="3">
-        <v>3.9669999999999998E-5</v>
+        <v>5.427E-5</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="D199">
-        <v>-11.86</v>
+        <v>-1.47</v>
       </c>
       <c r="E199">
-        <v>50.3</v>
+        <v>40.24</v>
       </c>
       <c r="F199">
-        <v>112.57</v>
-      </c>
-      <c r="G199" s="1">
-        <v>84000000</v>
+        <v>127.55</v>
       </c>
       <c r="H199" s="1">
-        <v>14458730</v>
+        <v>13125999</v>
       </c>
       <c r="I199" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="J199" s="1">
-        <v>22797800</v>
-      </c>
-      <c r="K199">
-        <v>0.634216</v>
+        <v>15128969</v>
+      </c>
+      <c r="K199" s="1">
+        <v>0.86760700000000002</v>
       </c>
       <c r="L199" s="1">
-        <v>662790</v>
+        <v>137859</v>
       </c>
       <c r="M199">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N199" s="2">
-        <v>43107</v>
+        <v>43108</v>
       </c>
       <c r="O199" t="s">
         <v>159</v>
@@ -11479,43 +12071,46 @@
       <c r="P199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>15128969</v>
+        <v>1331155614</v>
       </c>
       <c r="B200" s="3">
-        <v>5.427E-5</v>
+        <v>6.0999999999999998E-7</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D200">
-        <v>-1.47</v>
+        <v>-3.72</v>
       </c>
       <c r="E200">
-        <v>40.24</v>
+        <v>-5.5</v>
       </c>
       <c r="F200">
-        <v>127.55</v>
+        <v>69</v>
       </c>
       <c r="H200" s="1">
-        <v>13125999</v>
+        <v>13103856</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J200" s="1">
-        <v>15128969</v>
-      </c>
-      <c r="K200">
-        <v>0.86760700000000002</v>
+        <v>8885254986</v>
+      </c>
+      <c r="K200" s="1">
+        <v>9.8439700000000005E-3</v>
       </c>
       <c r="L200" s="1">
-        <v>137859</v>
+        <v>109337</v>
       </c>
       <c r="M200">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N200" s="2">
         <v>43108</v>
@@ -11526,46 +12121,49 @@
       <c r="P200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>1331155614</v>
+        <v>22293890</v>
       </c>
       <c r="B201" s="3">
-        <v>6.0999999999999998E-7</v>
+        <v>3.4020000000000003E-5</v>
       </c>
       <c r="C201" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D201">
-        <v>-3.72</v>
+        <v>2.63</v>
       </c>
       <c r="E201">
-        <v>-5.5</v>
+        <v>-3.17</v>
       </c>
       <c r="F201">
-        <v>69</v>
+        <v>8.73</v>
       </c>
       <c r="H201" s="1">
-        <v>13103856</v>
+        <v>12123239</v>
       </c>
       <c r="I201" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="J201" s="1">
-        <v>8885254986</v>
-      </c>
-      <c r="K201">
-        <v>9.8439700000000005E-3</v>
+        <v>25264095</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0.54379200000000005</v>
       </c>
       <c r="L201" s="1">
-        <v>109337</v>
+        <v>17662.599999999999</v>
       </c>
       <c r="M201">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="N201" s="2">
-        <v>43108</v>
+        <v>43106</v>
       </c>
       <c r="O201" t="s">
         <v>159</v>
@@ -11573,43 +12171,46 @@
       <c r="P201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>22293890</v>
+        <v>1402641</v>
       </c>
       <c r="B202" s="3">
-        <v>3.4020000000000003E-5</v>
+        <v>5.2731000000000002E-4</v>
       </c>
       <c r="C202" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D202">
-        <v>2.63</v>
+        <v>26.55</v>
       </c>
       <c r="E202">
-        <v>-3.17</v>
+        <v>117.6</v>
       </c>
       <c r="F202">
-        <v>8.73</v>
+        <v>433.88</v>
       </c>
       <c r="H202" s="1">
-        <v>12123239</v>
+        <v>11839738</v>
       </c>
       <c r="I202" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J202" s="1">
-        <v>25264095</v>
-      </c>
-      <c r="K202">
-        <v>0.54379200000000005</v>
+        <v>16718085</v>
+      </c>
+      <c r="K202" s="1">
+        <v>8.4410299999999996</v>
       </c>
       <c r="L202" s="1">
-        <v>17662.599999999999</v>
+        <v>109384</v>
       </c>
       <c r="M202">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N202" s="2">
         <v>43106</v>
@@ -11620,46 +12221,49 @@
       <c r="P202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1402641</v>
+        <v>1479062</v>
       </c>
       <c r="B203" s="3">
-        <v>5.2731000000000002E-4</v>
+        <v>4.8601999999999999E-4</v>
       </c>
       <c r="C203" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D203">
-        <v>26.55</v>
+        <v>-9.57</v>
       </c>
       <c r="E203">
-        <v>117.6</v>
+        <v>-12.53</v>
       </c>
       <c r="F203">
-        <v>433.88</v>
+        <v>44.15</v>
       </c>
       <c r="H203" s="1">
-        <v>11839738</v>
+        <v>11507162</v>
       </c>
       <c r="I203" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J203" s="1">
-        <v>16718085</v>
-      </c>
-      <c r="K203">
-        <v>8.4410299999999996</v>
+        <v>1479062</v>
+      </c>
+      <c r="K203" s="1">
+        <v>7.7800399999999996</v>
       </c>
       <c r="L203" s="1">
-        <v>109384</v>
+        <v>79405.2</v>
       </c>
       <c r="M203">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="N203" s="2">
-        <v>43106</v>
+        <v>43108</v>
       </c>
       <c r="O203" t="s">
         <v>159</v>
@@ -11667,140 +12271,152 @@
       <c r="P203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>1479062</v>
+        <v>1015646</v>
       </c>
       <c r="B204" s="3">
-        <v>4.8601999999999999E-4</v>
+        <v>7.0012999999999998E-4</v>
       </c>
       <c r="C204" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D204">
-        <v>-9.57</v>
+        <v>-3.76</v>
       </c>
       <c r="E204">
-        <v>-12.53</v>
+        <v>11.91</v>
       </c>
       <c r="F204">
-        <v>44.15</v>
+        <v>145.28</v>
       </c>
       <c r="H204" s="1">
-        <v>11507162</v>
+        <v>11367310</v>
       </c>
       <c r="I204" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="J204" s="1">
-        <v>1479062</v>
-      </c>
-      <c r="K204">
-        <v>7.7800399999999996</v>
+        <v>1835646</v>
+      </c>
+      <c r="K204" s="1">
+        <v>11.1922</v>
       </c>
       <c r="L204" s="1">
-        <v>79405.2</v>
+        <v>304172</v>
       </c>
       <c r="M204">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N204" s="2">
+        <v>43107</v>
+      </c>
+      <c r="O204" t="s">
+        <v>159</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>7745673</v>
+      </c>
+      <c r="B205" s="3">
+        <v>8.9959999999999999E-5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205">
+        <v>-1.8</v>
+      </c>
+      <c r="E205">
+        <v>-7.04</v>
+      </c>
+      <c r="F205">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H205" s="1">
+        <v>11154311</v>
+      </c>
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205" s="1">
+        <v>7745673</v>
+      </c>
+      <c r="K205" s="1">
+        <v>1.44007</v>
+      </c>
+      <c r="L205" s="1">
+        <v>864469</v>
+      </c>
+      <c r="M205">
+        <v>1124</v>
+      </c>
+      <c r="N205" s="2">
         <v>43108</v>
       </c>
-      <c r="O204" t="s">
-        <v>159</v>
-      </c>
-      <c r="P204">
-        <v>0</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>1015646</v>
-      </c>
-      <c r="B205" s="3">
-        <v>7.0012999999999998E-4</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205">
-        <v>-3.76</v>
-      </c>
-      <c r="E205">
-        <v>11.91</v>
-      </c>
-      <c r="F205">
-        <v>145.28</v>
-      </c>
-      <c r="H205" s="1">
-        <v>11367310</v>
-      </c>
-      <c r="I205" t="s">
-        <v>29</v>
-      </c>
-      <c r="J205" s="1">
-        <v>1835646</v>
-      </c>
-      <c r="K205">
-        <v>11.1922</v>
-      </c>
-      <c r="L205" s="1">
-        <v>304172</v>
-      </c>
-      <c r="M205">
-        <v>85</v>
-      </c>
-      <c r="N205" s="2">
-        <v>43107</v>
-      </c>
       <c r="O205" t="s">
         <v>159</v>
       </c>
       <c r="P205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>7745673</v>
+        <v>17813677</v>
       </c>
       <c r="B206" s="3">
-        <v>8.9959999999999999E-5</v>
+        <v>3.4079999999999999E-5</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D206">
-        <v>-1.8</v>
+        <v>2.77</v>
       </c>
       <c r="E206">
-        <v>-7.04</v>
+        <v>66.48</v>
       </c>
       <c r="F206">
-        <v>18.899999999999999</v>
+        <v>269.67</v>
+      </c>
+      <c r="G206" s="1">
+        <v>19276800</v>
       </c>
       <c r="H206" s="1">
-        <v>11154311</v>
+        <v>9716702</v>
       </c>
       <c r="I206" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J206" s="1">
-        <v>7745673</v>
-      </c>
-      <c r="K206">
-        <v>1.44007</v>
+        <v>17813677</v>
+      </c>
+      <c r="K206" s="1">
+        <v>0.54546300000000003</v>
       </c>
       <c r="L206" s="1">
-        <v>864469</v>
+        <v>485853</v>
       </c>
       <c r="M206">
-        <v>1124</v>
+        <v>128</v>
       </c>
       <c r="N206" s="2">
         <v>43108</v>
@@ -11811,149 +12427,158 @@
       <c r="P206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>17813677</v>
+        <v>10007133</v>
       </c>
       <c r="B207" s="3">
-        <v>3.4079999999999999E-5</v>
+        <v>5.7899999999999998E-5</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D207">
-        <v>2.77</v>
+        <v>1.2</v>
       </c>
       <c r="E207">
-        <v>66.48</v>
+        <v>17.96</v>
       </c>
       <c r="F207">
-        <v>269.67</v>
-      </c>
-      <c r="G207" s="1">
-        <v>19276800</v>
+        <v>59.29</v>
       </c>
       <c r="H207" s="1">
-        <v>9716702</v>
+        <v>9275702</v>
       </c>
       <c r="I207" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="J207" s="1">
-        <v>17813677</v>
-      </c>
-      <c r="K207">
-        <v>0.54546300000000003</v>
+        <v>11107133</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0.92690899999999998</v>
       </c>
       <c r="L207" s="1">
-        <v>485853</v>
+        <v>97325.5</v>
       </c>
       <c r="M207">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="N207" s="2">
+        <v>43107</v>
+      </c>
+      <c r="O207" t="s">
+        <v>159</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>3678525</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1.5582000000000001E-4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <v>2.12</v>
+      </c>
+      <c r="E208">
+        <v>60.99</v>
+      </c>
+      <c r="F208">
+        <v>113.1</v>
+      </c>
+      <c r="G208" s="1">
+        <v>280000000</v>
+      </c>
+      <c r="H208" s="1">
+        <v>9175087</v>
+      </c>
+      <c r="I208" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" s="1">
+        <v>3678525</v>
+      </c>
+      <c r="K208" s="1">
+        <v>2.4942299999999999</v>
+      </c>
+      <c r="L208" s="1">
+        <v>584997</v>
+      </c>
+      <c r="M208">
+        <v>71</v>
+      </c>
+      <c r="N208" s="2">
         <v>43108</v>
       </c>
-      <c r="O207" t="s">
-        <v>159</v>
-      </c>
-      <c r="P207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>10007133</v>
-      </c>
-      <c r="B208" s="3">
-        <v>5.7899999999999998E-5</v>
-      </c>
-      <c r="C208" t="s">
-        <v>86</v>
-      </c>
-      <c r="D208">
-        <v>1.2</v>
-      </c>
-      <c r="E208">
-        <v>17.96</v>
-      </c>
-      <c r="F208">
-        <v>59.29</v>
-      </c>
-      <c r="H208" s="1">
-        <v>9275702</v>
-      </c>
-      <c r="I208" t="s">
-        <v>87</v>
-      </c>
-      <c r="J208" s="1">
-        <v>11107133</v>
-      </c>
-      <c r="K208">
-        <v>0.92690899999999998</v>
-      </c>
-      <c r="L208" s="1">
-        <v>97325.5</v>
-      </c>
-      <c r="M208">
-        <v>73</v>
-      </c>
-      <c r="N208" s="2">
-        <v>43107</v>
-      </c>
       <c r="O208" t="s">
         <v>159</v>
       </c>
       <c r="P208">
         <v>0</v>
       </c>
-      <c r="Q208" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>3678525</v>
+        <v>46000000</v>
       </c>
       <c r="B209" s="3">
-        <v>1.5582000000000001E-4</v>
+        <v>1.154E-5</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="D209">
-        <v>2.12</v>
+        <v>-2.64</v>
       </c>
       <c r="E209">
-        <v>60.99</v>
+        <v>9.26</v>
       </c>
       <c r="F209">
-        <v>113.1</v>
-      </c>
-      <c r="G209" s="1">
-        <v>280000000</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="H209" s="1">
-        <v>9175087</v>
+        <v>8500248</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="J209" s="1">
-        <v>3678525</v>
-      </c>
-      <c r="K209">
-        <v>2.4942299999999999</v>
+        <v>50000000</v>
+      </c>
+      <c r="K209" s="1">
+        <v>0.18478800000000001</v>
       </c>
       <c r="L209" s="1">
-        <v>584997</v>
+        <v>92062.6</v>
       </c>
       <c r="M209">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N209" s="2">
-        <v>43108</v>
+        <v>43106</v>
       </c>
       <c r="O209" t="s">
         <v>159</v>
@@ -11961,452 +12586,479 @@
       <c r="P209">
         <v>0</v>
       </c>
-      <c r="Q209" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>46000000</v>
+        <v>50000000</v>
       </c>
       <c r="B210" s="3">
-        <v>1.154E-5</v>
+        <v>9.6500000000000008E-6</v>
       </c>
       <c r="C210" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D210">
-        <v>-2.64</v>
+        <v>-0.69</v>
       </c>
       <c r="E210">
-        <v>9.26</v>
+        <v>-13.9</v>
       </c>
       <c r="F210">
-        <v>19.010000000000002</v>
+        <v>44.69</v>
       </c>
       <c r="H210" s="1">
-        <v>8500248</v>
+        <v>7720350</v>
       </c>
       <c r="I210" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J210" s="1">
         <v>50000000</v>
       </c>
-      <c r="K210">
-        <v>0.18478800000000001</v>
+      <c r="K210" s="1">
+        <v>0.15440699999999999</v>
       </c>
       <c r="L210" s="1">
-        <v>92062.6</v>
+        <v>59172.2</v>
       </c>
       <c r="M210">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N210" s="2">
+        <v>43105</v>
+      </c>
+      <c r="O210" t="s">
+        <v>159</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>33356077</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1.359E-5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>362</v>
+      </c>
+      <c r="D211">
+        <v>-1.44</v>
+      </c>
+      <c r="E211">
+        <v>44.23</v>
+      </c>
+      <c r="F211">
+        <v>101.43</v>
+      </c>
+      <c r="H211" s="1">
+        <v>7259083</v>
+      </c>
+      <c r="I211" t="s">
+        <v>363</v>
+      </c>
+      <c r="J211" s="1">
+        <v>33356077</v>
+      </c>
+      <c r="K211" s="1">
+        <v>0.21762400000000001</v>
+      </c>
+      <c r="L211" s="1">
+        <v>189846</v>
+      </c>
+      <c r="M211">
+        <v>92</v>
+      </c>
+      <c r="N211" s="2">
+        <v>43103</v>
+      </c>
+      <c r="O211" t="s">
+        <v>159</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>14729550</v>
+      </c>
+      <c r="B212" s="3">
+        <v>2.8759999999999999E-5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>110</v>
+      </c>
+      <c r="D212">
+        <v>0.82</v>
+      </c>
+      <c r="E212">
+        <v>1.29</v>
+      </c>
+      <c r="F212">
+        <v>106.51</v>
+      </c>
+      <c r="G212" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H212" s="1">
+        <v>6781352</v>
+      </c>
+      <c r="I212" t="s">
+        <v>111</v>
+      </c>
+      <c r="J212" s="1">
+        <v>15729550</v>
+      </c>
+      <c r="K212" s="1">
+        <v>0.46039099999999999</v>
+      </c>
+      <c r="L212" s="1">
+        <v>125630</v>
+      </c>
+      <c r="M212">
+        <v>38</v>
+      </c>
+      <c r="N212" s="2">
         <v>43106</v>
       </c>
-      <c r="O210" t="s">
-        <v>159</v>
-      </c>
-      <c r="P210">
-        <v>0</v>
-      </c>
-      <c r="Q210" t="s">
+      <c r="O212" t="s">
+        <v>159</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="B211" s="3">
-        <v>9.6500000000000008E-6</v>
-      </c>
-      <c r="C211" t="s">
-        <v>146</v>
-      </c>
-      <c r="D211">
-        <v>-0.69</v>
-      </c>
-      <c r="E211">
-        <v>-13.9</v>
-      </c>
-      <c r="F211">
-        <v>44.69</v>
-      </c>
-      <c r="H211" s="1">
-        <v>7720350</v>
-      </c>
-      <c r="I211" t="s">
-        <v>147</v>
-      </c>
-      <c r="J211" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="K211">
-        <v>0.15440699999999999</v>
-      </c>
-      <c r="L211" s="1">
-        <v>59172.2</v>
-      </c>
-      <c r="M211">
-        <v>35</v>
-      </c>
-      <c r="N211" s="2">
-        <v>43105</v>
-      </c>
-      <c r="O211" t="s">
-        <v>159</v>
-      </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>33356077</v>
-      </c>
-      <c r="B212" s="3">
-        <v>1.359E-5</v>
-      </c>
-      <c r="C212" t="s">
-        <v>362</v>
-      </c>
-      <c r="D212">
-        <v>-1.44</v>
-      </c>
-      <c r="E212">
-        <v>44.23</v>
-      </c>
-      <c r="F212">
-        <v>101.43</v>
-      </c>
-      <c r="H212" s="1">
-        <v>7259083</v>
-      </c>
-      <c r="I212" t="s">
-        <v>363</v>
-      </c>
-      <c r="J212" s="1">
-        <v>33356077</v>
-      </c>
-      <c r="K212">
-        <v>0.21762400000000001</v>
-      </c>
-      <c r="L212" s="1">
-        <v>189846</v>
-      </c>
-      <c r="M212">
-        <v>92</v>
-      </c>
-      <c r="N212" s="2">
-        <v>43103</v>
-      </c>
-      <c r="O212" t="s">
-        <v>159</v>
-      </c>
-      <c r="P212">
-        <v>0</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>14729550</v>
+        <v>15746668</v>
       </c>
       <c r="B213" s="3">
-        <v>2.8759999999999999E-5</v>
+        <v>2.6889999999999998E-5</v>
       </c>
       <c r="C213" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D213">
-        <v>0.82</v>
+        <v>11.01</v>
       </c>
       <c r="E213">
-        <v>1.29</v>
+        <v>3.16</v>
       </c>
       <c r="F213">
-        <v>106.51</v>
-      </c>
-      <c r="G213" s="1">
-        <v>100000000</v>
+        <v>122.41</v>
       </c>
       <c r="H213" s="1">
-        <v>6781352</v>
+        <v>6776862</v>
       </c>
       <c r="I213" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="J213" s="1">
-        <v>15729550</v>
-      </c>
-      <c r="K213">
-        <v>0.46039099999999999</v>
+        <v>22940540</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0.43036799999999997</v>
       </c>
       <c r="L213" s="1">
-        <v>125630</v>
+        <v>217496</v>
       </c>
       <c r="M213">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N213" s="2">
+        <v>43107</v>
+      </c>
+      <c r="O213" t="s">
+        <v>159</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>446303</v>
+      </c>
+      <c r="B214" s="3">
+        <v>6.2202000000000004E-4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214">
+        <v>-0.77</v>
+      </c>
+      <c r="E214">
+        <v>33.92</v>
+      </c>
+      <c r="F214">
+        <v>165.73</v>
+      </c>
+      <c r="H214" s="1">
+        <v>4443871</v>
+      </c>
+      <c r="I214" t="s">
+        <v>49</v>
+      </c>
+      <c r="J214" s="1">
+        <v>446303</v>
+      </c>
+      <c r="K214" s="1">
+        <v>9.9570799999999995</v>
+      </c>
+      <c r="L214" s="1">
+        <v>2170020</v>
+      </c>
+      <c r="M214">
+        <v>40</v>
+      </c>
+      <c r="N214" s="2">
+        <v>43108</v>
+      </c>
+      <c r="O214" t="s">
+        <v>159</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>3268301</v>
+      </c>
+      <c r="B215" s="3">
+        <v>6.6790000000000003E-5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D215">
+        <v>1.85</v>
+      </c>
+      <c r="E215">
+        <v>102.76</v>
+      </c>
+      <c r="F215">
+        <v>422.33</v>
+      </c>
+      <c r="G215" s="1">
+        <v>3315372</v>
+      </c>
+      <c r="H215" s="1">
+        <v>3494140</v>
+      </c>
+      <c r="I215" t="s">
+        <v>113</v>
+      </c>
+      <c r="J215" s="1">
+        <v>3315297</v>
+      </c>
+      <c r="K215" s="1">
+        <v>1.0690999999999999</v>
+      </c>
+      <c r="L215" s="1">
+        <v>303945</v>
+      </c>
+      <c r="M215">
+        <v>78</v>
+      </c>
+      <c r="N215" s="2">
         <v>43106</v>
       </c>
-      <c r="O213" t="s">
-        <v>159</v>
-      </c>
-      <c r="P213">
-        <v>0</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>15746668</v>
-      </c>
-      <c r="B214" s="3">
-        <v>2.6889999999999998E-5</v>
-      </c>
-      <c r="C214" t="s">
-        <v>24</v>
-      </c>
-      <c r="D214">
-        <v>11.01</v>
-      </c>
-      <c r="E214">
-        <v>3.16</v>
-      </c>
-      <c r="F214">
-        <v>122.41</v>
-      </c>
-      <c r="H214" s="1">
-        <v>6776862</v>
-      </c>
-      <c r="I214" t="s">
-        <v>25</v>
-      </c>
-      <c r="J214" s="1">
-        <v>22940540</v>
-      </c>
-      <c r="K214">
-        <v>0.43036799999999997</v>
-      </c>
-      <c r="L214" s="1">
-        <v>217496</v>
-      </c>
-      <c r="M214">
-        <v>18</v>
-      </c>
-      <c r="N214" s="2">
-        <v>43107</v>
-      </c>
-      <c r="O214" t="s">
-        <v>159</v>
-      </c>
-      <c r="P214">
-        <v>0</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>446303</v>
-      </c>
-      <c r="B215" s="3">
-        <v>6.2202000000000004E-4</v>
-      </c>
-      <c r="C215" t="s">
-        <v>48</v>
-      </c>
-      <c r="D215">
-        <v>-0.77</v>
-      </c>
-      <c r="E215">
-        <v>33.92</v>
-      </c>
-      <c r="F215">
-        <v>165.73</v>
-      </c>
-      <c r="H215" s="1">
-        <v>4443871</v>
-      </c>
-      <c r="I215" t="s">
-        <v>49</v>
-      </c>
-      <c r="J215" s="1">
-        <v>446303</v>
-      </c>
-      <c r="K215">
-        <v>9.9570799999999995</v>
-      </c>
-      <c r="L215" s="1">
-        <v>2170020</v>
-      </c>
-      <c r="M215">
-        <v>40</v>
-      </c>
-      <c r="N215" s="2">
+      <c r="O215" t="s">
+        <v>159</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>241218</v>
+      </c>
+      <c r="B216" s="3">
+        <v>9.0472999999999997E-4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>234</v>
+      </c>
+      <c r="D216">
+        <v>26.47</v>
+      </c>
+      <c r="E216">
+        <v>-9.77</v>
+      </c>
+      <c r="F216">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="H216" s="1">
+        <v>3493489</v>
+      </c>
+      <c r="I216" t="s">
+        <v>235</v>
+      </c>
+      <c r="J216" s="1">
+        <v>312155</v>
+      </c>
+      <c r="K216" s="1">
+        <v>14.482699999999999</v>
+      </c>
+      <c r="L216" s="1">
+        <v>13536.5</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216" t="s">
+        <v>159</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>1852660</v>
+      </c>
+      <c r="B217" s="3">
+        <v>9.2849999999999994E-5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>-10.91</v>
+      </c>
+      <c r="E217">
+        <v>41.74</v>
+      </c>
+      <c r="F217">
+        <v>132.29</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2753627</v>
+      </c>
+      <c r="I217" t="s">
+        <v>31</v>
+      </c>
+      <c r="J217" s="1">
+        <v>1852660</v>
+      </c>
+      <c r="K217" s="1">
+        <v>1.48631</v>
+      </c>
+      <c r="L217" s="1">
+        <v>87376.7</v>
+      </c>
+      <c r="M217">
+        <v>409</v>
+      </c>
+      <c r="N217" s="2">
         <v>43108</v>
       </c>
-      <c r="O215" t="s">
-        <v>159</v>
-      </c>
-      <c r="P215">
-        <v>0</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>3268301</v>
-      </c>
-      <c r="B216" s="3">
-        <v>6.6790000000000003E-5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>112</v>
-      </c>
-      <c r="D216">
-        <v>1.85</v>
-      </c>
-      <c r="E216">
-        <v>102.76</v>
-      </c>
-      <c r="F216">
-        <v>422.33</v>
-      </c>
-      <c r="G216" s="1">
-        <v>3315372</v>
-      </c>
-      <c r="H216" s="1">
-        <v>3494140</v>
-      </c>
-      <c r="I216" t="s">
-        <v>113</v>
-      </c>
-      <c r="J216" s="1">
-        <v>3315297</v>
-      </c>
-      <c r="K216">
-        <v>1.0690999999999999</v>
-      </c>
-      <c r="L216" s="1">
-        <v>303945</v>
-      </c>
-      <c r="M216">
-        <v>78</v>
-      </c>
-      <c r="N216" s="2">
-        <v>43106</v>
-      </c>
-      <c r="O216" t="s">
-        <v>159</v>
-      </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="s">
+      <c r="O217" t="s">
+        <v>159</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>241218</v>
-      </c>
-      <c r="B217" s="3">
-        <v>9.0472999999999997E-4</v>
-      </c>
-      <c r="C217" t="s">
-        <v>234</v>
-      </c>
-      <c r="D217">
-        <v>26.47</v>
-      </c>
-      <c r="E217">
-        <v>-9.77</v>
-      </c>
-      <c r="F217">
-        <v>78.260000000000005</v>
-      </c>
-      <c r="H217" s="1">
-        <v>3493489</v>
-      </c>
-      <c r="I217" t="s">
-        <v>235</v>
-      </c>
-      <c r="J217" s="1">
-        <v>312155</v>
-      </c>
-      <c r="K217">
-        <v>14.482699999999999</v>
-      </c>
-      <c r="L217" s="1">
-        <v>13536.5</v>
-      </c>
-      <c r="M217">
-        <v>0</v>
-      </c>
-      <c r="N217">
-        <v>0</v>
-      </c>
-      <c r="O217" t="s">
-        <v>159</v>
-      </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1852660</v>
+        <v>221789</v>
       </c>
       <c r="B218" s="3">
-        <v>9.2849999999999994E-5</v>
+        <v>7.4759999999999996E-4</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D218">
-        <v>-10.91</v>
+        <v>1.17</v>
       </c>
       <c r="E218">
-        <v>41.74</v>
+        <v>-12.03</v>
       </c>
       <c r="F218">
-        <v>132.29</v>
+        <v>-15.67</v>
       </c>
       <c r="H218" s="1">
-        <v>2753627</v>
+        <v>2654214</v>
       </c>
       <c r="I218" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="J218" s="1">
-        <v>1852660</v>
-      </c>
-      <c r="K218">
-        <v>1.48631</v>
+        <v>2181250</v>
+      </c>
+      <c r="K218" s="1">
+        <v>11.9673</v>
       </c>
       <c r="L218" s="1">
-        <v>87376.7</v>
+        <v>484370</v>
       </c>
       <c r="M218">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="N218" s="2">
         <v>43108</v>
@@ -12417,46 +13069,49 @@
       <c r="P218">
         <v>0</v>
       </c>
-      <c r="Q218" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>221789</v>
+        <v>88183483</v>
       </c>
       <c r="B219" s="3">
-        <v>7.4759999999999996E-4</v>
+        <v>1.4699999999999999E-6</v>
       </c>
       <c r="C219" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D219">
-        <v>1.17</v>
+        <v>-9.8699999999999992</v>
       </c>
       <c r="E219">
-        <v>-12.03</v>
+        <v>3.84</v>
       </c>
       <c r="F219">
-        <v>-15.67</v>
+        <v>55.8</v>
       </c>
       <c r="H219" s="1">
-        <v>2654214</v>
+        <v>2092435</v>
       </c>
       <c r="I219" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="J219" s="1">
-        <v>2181250</v>
-      </c>
-      <c r="K219">
-        <v>11.9673</v>
+        <v>488183483</v>
+      </c>
+      <c r="K219" s="1">
+        <v>2.3728200000000001E-2</v>
       </c>
       <c r="L219" s="1">
-        <v>484370</v>
+        <v>65005.3</v>
       </c>
       <c r="M219">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N219" s="2">
         <v>43108</v>
@@ -12467,46 +13122,49 @@
       <c r="P219">
         <v>0</v>
       </c>
-      <c r="Q219" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>88183483</v>
+        <v>40592900</v>
       </c>
       <c r="B220" s="3">
-        <v>1.4699999999999999E-6</v>
+        <v>2.61E-6</v>
       </c>
       <c r="C220" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D220">
-        <v>-9.8699999999999992</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E220">
-        <v>3.84</v>
+        <v>24.2</v>
       </c>
       <c r="F220">
-        <v>55.8</v>
+        <v>111.03</v>
       </c>
       <c r="H220" s="1">
-        <v>2092435</v>
+        <v>1694709</v>
       </c>
       <c r="I220" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J220" s="1">
-        <v>488183483</v>
-      </c>
-      <c r="K220">
-        <v>2.3728200000000001E-2</v>
+        <v>45625900</v>
+      </c>
+      <c r="K220" s="1">
+        <v>4.1748899999999999E-2</v>
       </c>
       <c r="L220" s="1">
-        <v>65005.3</v>
+        <v>50964</v>
       </c>
       <c r="M220">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N220" s="2">
         <v>43108</v>
@@ -12517,49 +13175,46 @@
       <c r="P220">
         <v>0</v>
       </c>
-      <c r="Q220" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>40592900</v>
-      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
-        <v>2.61E-6</v>
+        <v>2.2569999999999999E-5</v>
       </c>
       <c r="C221" t="s">
-        <v>128</v>
+        <v>455</v>
       </c>
       <c r="D221">
-        <v>-10.029999999999999</v>
+        <v>-2.75</v>
       </c>
       <c r="E221">
-        <v>24.2</v>
+        <v>-16.329999999999998</v>
       </c>
       <c r="F221">
-        <v>111.03</v>
-      </c>
-      <c r="H221" s="1">
-        <v>1694709</v>
+        <v>357.92</v>
       </c>
       <c r="I221" t="s">
-        <v>129</v>
+        <v>456</v>
       </c>
       <c r="J221" s="1">
-        <v>45625900</v>
-      </c>
-      <c r="K221">
-        <v>4.1748899999999999E-2</v>
+        <v>438686537</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0.36143700000000001</v>
       </c>
       <c r="L221" s="1">
-        <v>50964</v>
+        <v>2290220</v>
       </c>
       <c r="M221">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N221" s="2">
-        <v>43108</v>
+        <v>43107</v>
       </c>
       <c r="O221" t="s">
         <v>159</v>
@@ -12567,43 +13222,43 @@
       <c r="P221">
         <v>0</v>
       </c>
-      <c r="Q221" t="s">
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
-        <v>1.9700000000000002E-6</v>
+        <v>2.8955000000000002E-4</v>
       </c>
       <c r="C222" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D222">
-        <v>0.34</v>
+        <v>-7.88</v>
       </c>
       <c r="E222">
-        <v>-1.6</v>
+        <v>-4.59</v>
       </c>
       <c r="F222">
-        <v>30.86</v>
-      </c>
-      <c r="G222" s="1">
-        <v>2147483647</v>
+        <v>345.69</v>
       </c>
       <c r="I222" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J222" s="1">
-        <v>2147483647</v>
-      </c>
-      <c r="K222">
-        <v>3.1497400000000002E-2</v>
+        <v>1021644</v>
+      </c>
+      <c r="K222" s="1">
+        <v>4.6368600000000004</v>
       </c>
       <c r="L222" s="1">
-        <v>131733</v>
+        <v>327000</v>
       </c>
       <c r="M222">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N222" s="2">
         <v>43107</v>
@@ -12614,40 +13269,43 @@
       <c r="P222">
         <v>0</v>
       </c>
-      <c r="Q222" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
-        <v>1.906E-5</v>
+        <v>4.7999999999999996E-7</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="D223">
-        <v>-0.79</v>
+        <v>-1.21</v>
       </c>
       <c r="E223">
-        <v>16.72</v>
+        <v>59.96</v>
+      </c>
+      <c r="F223">
+        <v>211.93</v>
       </c>
       <c r="I223" t="s">
-        <v>121</v>
-      </c>
-      <c r="J223" s="1">
-        <v>299798552</v>
-      </c>
-      <c r="K223">
-        <v>0.30521799999999999</v>
+        <v>242</v>
+      </c>
+      <c r="K223" s="1">
+        <v>7.6887199999999996E-3</v>
       </c>
       <c r="L223" s="1">
-        <v>5429410</v>
+        <v>18684</v>
       </c>
       <c r="M223">
-        <v>60</v>
-      </c>
-      <c r="N223" s="2">
-        <v>43108</v>
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
       </c>
       <c r="O223" t="s">
         <v>159</v>
@@ -12655,43 +13313,46 @@
       <c r="P223">
         <v>0</v>
       </c>
-      <c r="Q223" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
-        <v>2.2569999999999999E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="C224" t="s">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="D224">
-        <v>-2.75</v>
+        <v>13.2</v>
       </c>
       <c r="E224">
-        <v>-16.329999999999998</v>
+        <v>116.74</v>
       </c>
       <c r="F224">
-        <v>357.92</v>
+        <v>192.47</v>
+      </c>
+      <c r="G224" s="1">
+        <v>2000000</v>
       </c>
       <c r="I224" t="s">
-        <v>458</v>
-      </c>
-      <c r="J224" s="1">
-        <v>438686537</v>
-      </c>
-      <c r="K224">
-        <v>0.36143700000000001</v>
+        <v>244</v>
+      </c>
+      <c r="K224" s="1">
+        <v>0.44850899999999999</v>
       </c>
       <c r="L224" s="1">
-        <v>2290220</v>
+        <v>22652.7</v>
       </c>
       <c r="M224">
-        <v>54</v>
-      </c>
-      <c r="N224" s="2">
-        <v>43107</v>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
       </c>
       <c r="O224" t="s">
         <v>159</v>
@@ -12699,43 +13360,46 @@
       <c r="P224">
         <v>0</v>
       </c>
-      <c r="Q224" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="225" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
-        <v>2.8955000000000002E-4</v>
+        <v>5.5000000000000003E-7</v>
       </c>
       <c r="C225" t="s">
-        <v>425</v>
+        <v>239</v>
       </c>
       <c r="D225">
-        <v>-7.88</v>
+        <v>-0.04</v>
       </c>
       <c r="E225">
-        <v>-4.59</v>
+        <v>81.64</v>
       </c>
       <c r="F225">
-        <v>345.69</v>
+        <v>170.96</v>
       </c>
       <c r="I225" t="s">
-        <v>426</v>
+        <v>240</v>
       </c>
       <c r="J225" s="1">
-        <v>1021644</v>
-      </c>
-      <c r="K225">
-        <v>4.6368600000000004</v>
+        <v>49312080</v>
+      </c>
+      <c r="K225" s="1">
+        <v>8.7384300000000002E-3</v>
       </c>
       <c r="L225" s="1">
-        <v>327000</v>
+        <v>38394.6</v>
       </c>
       <c r="M225">
-        <v>46</v>
-      </c>
-      <c r="N225" s="2">
-        <v>43107</v>
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
       </c>
       <c r="O225" t="s">
         <v>159</v>
@@ -12743,16 +13407,19 @@
       <c r="P225">
         <v>0</v>
       </c>
-      <c r="Q225" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="226" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>4.7859999999999999E-5</v>
       </c>
       <c r="C226" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D226">
         <v>-2.4500000000000002</v>
@@ -12764,12 +13431,12 @@
         <v>125.12</v>
       </c>
       <c r="I226" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J226" s="1">
         <v>600000000</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="1">
         <v>0.76642500000000002</v>
       </c>
       <c r="L226" s="1">
@@ -12787,34 +13454,40 @@
       <c r="P226">
         <v>0</v>
       </c>
-      <c r="Q226" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="227" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
-        <v>4.7999999999999996E-7</v>
+        <v>7.2390000000000003E-5</v>
       </c>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D227">
-        <v>-1.21</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="E227">
-        <v>59.96</v>
+        <v>-16.350000000000001</v>
       </c>
       <c r="F227">
-        <v>211.93</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="I227" t="s">
-        <v>242</v>
-      </c>
-      <c r="K227">
-        <v>7.6887199999999996E-3</v>
+        <v>238</v>
+      </c>
+      <c r="J227" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="K227" s="1">
+        <v>1.1592899999999999</v>
       </c>
       <c r="L227" s="1">
-        <v>18684</v>
+        <v>4078640</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -12828,37 +13501,40 @@
       <c r="P227">
         <v>0</v>
       </c>
-      <c r="Q227" t="s">
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
-        <v>2.8E-5</v>
+        <v>4.33E-6</v>
       </c>
       <c r="C228" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D228">
-        <v>13.2</v>
+        <v>-9.39</v>
       </c>
       <c r="E228">
-        <v>116.74</v>
+        <v>11.97</v>
       </c>
       <c r="F228">
-        <v>192.47</v>
-      </c>
-      <c r="G228" s="1">
-        <v>2000000</v>
+        <v>48.7</v>
       </c>
       <c r="I228" t="s">
-        <v>244</v>
-      </c>
-      <c r="K228">
-        <v>0.44850899999999999</v>
+        <v>246</v>
+      </c>
+      <c r="J228" s="1">
+        <v>6798711</v>
+      </c>
+      <c r="K228" s="1">
+        <v>6.9283800000000006E-2</v>
       </c>
       <c r="L228" s="1">
-        <v>22652.7</v>
+        <v>5206.3500000000004</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -12872,43 +13548,49 @@
       <c r="P228">
         <v>0</v>
       </c>
-      <c r="Q228" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="229" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
-        <v>5.5000000000000003E-7</v>
+        <v>1.9700000000000002E-6</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="D229">
-        <v>-0.04</v>
+        <v>0.34</v>
       </c>
       <c r="E229">
-        <v>81.64</v>
+        <v>-1.6</v>
       </c>
       <c r="F229">
-        <v>170.96</v>
+        <v>30.86</v>
+      </c>
+      <c r="G229" s="1">
+        <v>2147483647</v>
       </c>
       <c r="I229" t="s">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="J229" s="1">
-        <v>49312080</v>
-      </c>
-      <c r="K229">
-        <v>8.7384300000000002E-3</v>
+        <v>2147483647</v>
+      </c>
+      <c r="K229" s="1">
+        <v>3.1497400000000002E-2</v>
       </c>
       <c r="L229" s="1">
-        <v>38394.6</v>
+        <v>131733</v>
       </c>
       <c r="M229">
-        <v>0</v>
-      </c>
-      <c r="N229">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N229" s="2">
+        <v>43107</v>
       </c>
       <c r="O229" t="s">
         <v>159</v>
@@ -12916,43 +13598,43 @@
       <c r="P229">
         <v>0</v>
       </c>
-      <c r="Q229" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
-        <v>7.2390000000000003E-5</v>
+        <v>1.906E-5</v>
       </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="D230">
-        <v>-1.0900000000000001</v>
+        <v>-0.79</v>
       </c>
       <c r="E230">
-        <v>-16.350000000000001</v>
-      </c>
-      <c r="F230">
-        <v>73.010000000000005</v>
+        <v>16.72</v>
       </c>
       <c r="I230" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="J230" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="K230">
-        <v>1.1592899999999999</v>
+        <v>299798552</v>
+      </c>
+      <c r="K230" s="1">
+        <v>0.30521799999999999</v>
       </c>
       <c r="L230" s="1">
-        <v>4078640</v>
+        <v>5429410</v>
       </c>
       <c r="M230">
-        <v>0</v>
-      </c>
-      <c r="N230">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N230" s="2">
+        <v>43108</v>
       </c>
       <c r="O230" t="s">
         <v>159</v>
@@ -12960,64 +13642,30 @@
       <c r="P230">
         <v>0</v>
       </c>
-      <c r="Q230" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B231" s="3">
-        <v>4.33E-6</v>
-      </c>
-      <c r="C231" t="s">
-        <v>245</v>
-      </c>
-      <c r="D231">
-        <v>-9.39</v>
-      </c>
-      <c r="E231">
-        <v>11.97</v>
-      </c>
-      <c r="F231">
-        <v>48.7</v>
-      </c>
-      <c r="I231" t="s">
-        <v>246</v>
-      </c>
-      <c r="J231" s="1">
-        <v>6798711</v>
-      </c>
-      <c r="K231">
-        <v>6.9283800000000006E-2</v>
-      </c>
-      <c r="L231" s="1">
-        <v>5206.3500000000004</v>
-      </c>
-      <c r="M231">
-        <v>0</v>
-      </c>
-      <c r="N231">
-        <v>0</v>
-      </c>
-      <c r="O231" t="s">
-        <v>159</v>
-      </c>
-      <c r="P231">
-        <v>0</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>480</v>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q231">
-    <sortState ref="A2:Q231">
-      <sortCondition descending="1" ref="H1:H231"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:Q231">
-    <sortCondition descending="1" ref="M2"/>
+  <sortState ref="A2:R230">
+    <sortCondition descending="1" ref="F2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>